--- a/cmip6/models/ipsl-cm6a-lr/cmip6_ipsl_ipsl-cm6a-lr_ocean.xlsx
+++ b/cmip6/models/ipsl-cm6a-lr/cmip6_ipsl_ipsl-cm6a-lr_ocean.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="605">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -903,6 +903,9 @@
     <t>cmip6.ocean.advection.lateral_tracers.name</t>
   </si>
   <si>
+    <t>Total Variance Dissipation (TVD)</t>
+  </si>
+  <si>
     <t>4.3.5 - Passive Tracers</t>
   </si>
   <si>
@@ -939,6 +942,9 @@
     <t>cmip6.ocean.advection.vertical_tracers.name</t>
   </si>
   <si>
+    <t>TVD</t>
+  </si>
+  <si>
     <t>4.4.2 - Flux Limiter</t>
   </si>
   <si>
@@ -1168,6 +1174,9 @@
   </si>
   <si>
     <t>cmip6.ocean.lateral_physics.tracers.eddy_diffusity_coeff.type</t>
+  </si>
+  <si>
+    <t>Constant</t>
   </si>
   <si>
     <t>5.6.2 - Constant Coefficient</t>
@@ -5350,11 +5359,13 @@
       </c>
     </row>
     <row r="44" spans="2:6" ht="24" customHeight="1">
-      <c r="B44" s="13"/>
+      <c r="B44" s="13" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="46" spans="2:6" ht="24" customHeight="1">
       <c r="B46" s="8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>26</v>
@@ -5371,7 +5382,7 @@
     </row>
     <row r="47" spans="2:6" ht="24" customHeight="1">
       <c r="B47" s="10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C47" s="11" t="b">
         <v>0</v>
@@ -5383,7 +5394,7 @@
         <v>38</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="24" customHeight="1">
@@ -5391,7 +5402,7 @@
     </row>
     <row r="50" spans="1:6" ht="24" customHeight="1">
       <c r="B50" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>26</v>
@@ -5408,7 +5419,7 @@
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1">
       <c r="B51" s="10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C51" s="11" t="b">
         <v>0</v>
@@ -5420,7 +5431,7 @@
         <v>31</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1">
@@ -5428,10 +5439,10 @@
     </row>
     <row r="55" spans="1:6" ht="24" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -5440,12 +5451,12 @@
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1">
       <c r="B56" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="24" customHeight="1">
       <c r="B58" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>26</v>
@@ -5462,7 +5473,7 @@
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1">
       <c r="B59" s="10" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C59" s="11" t="b">
         <v>1</v>
@@ -5474,15 +5485,17 @@
         <v>31</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1">
-      <c r="B60" s="13"/>
+      <c r="B60" s="13" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="62" spans="1:6" ht="24" customHeight="1">
       <c r="B62" s="8" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>26</v>
@@ -5499,7 +5512,7 @@
     </row>
     <row r="63" spans="1:6" ht="24" customHeight="1">
       <c r="B63" s="10" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C63" s="11" t="b">
         <v>1</v>
@@ -5511,7 +5524,7 @@
         <v>90</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1">
@@ -5564,10 +5577,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -5576,10 +5589,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -5588,12 +5601,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>26</v>
@@ -5610,7 +5623,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -5622,7 +5635,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -5630,7 +5643,7 @@
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>26</v>
@@ -5647,7 +5660,7 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="B11" s="10" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C11" s="11" t="b">
         <v>1</v>
@@ -5659,7 +5672,7 @@
         <v>38</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
@@ -5667,10 +5680,10 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -5679,12 +5692,12 @@
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
       <c r="B16" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>26</v>
@@ -5701,7 +5714,7 @@
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>1</v>
@@ -5713,17 +5726,17 @@
         <v>38</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="24" customHeight="1">
       <c r="B22" s="8" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>26</v>
@@ -5740,7 +5753,7 @@
     </row>
     <row r="23" spans="1:6" ht="24" customHeight="1">
       <c r="B23" s="10" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C23" s="11" t="b">
         <v>1</v>
@@ -5752,17 +5765,17 @@
         <v>38</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1">
       <c r="B24" s="13" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="24" customHeight="1">
       <c r="B26" s="8" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>26</v>
@@ -5779,7 +5792,7 @@
     </row>
     <row r="27" spans="1:6" ht="24" customHeight="1">
       <c r="B27" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C27" s="11" t="b">
         <v>1</v>
@@ -5791,20 +5804,20 @@
         <v>38</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="24" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -5813,12 +5826,12 @@
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1">
       <c r="B32" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="24" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>26</v>
@@ -5835,7 +5848,7 @@
     </row>
     <row r="35" spans="2:6" ht="24" customHeight="1">
       <c r="B35" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C35" s="11" t="b">
         <v>1</v>
@@ -5847,17 +5860,17 @@
         <v>38</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="24" customHeight="1">
       <c r="B36" s="13" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="24" customHeight="1">
       <c r="B38" s="8" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>26</v>
@@ -5874,7 +5887,7 @@
     </row>
     <row r="39" spans="2:6" ht="24" customHeight="1">
       <c r="B39" s="10" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C39" s="11" t="b">
         <v>0</v>
@@ -5886,7 +5899,7 @@
         <v>137</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="24" customHeight="1">
@@ -5894,7 +5907,7 @@
     </row>
     <row r="42" spans="2:6" ht="24" customHeight="1">
       <c r="B42" s="8" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>26</v>
@@ -5911,7 +5924,7 @@
     </row>
     <row r="43" spans="2:6" ht="24" customHeight="1">
       <c r="B43" s="10" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C43" s="11" t="b">
         <v>0</v>
@@ -5923,17 +5936,17 @@
         <v>31</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="24" customHeight="1">
       <c r="B44" s="13" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="24" customHeight="1">
       <c r="B46" s="8" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>26</v>
@@ -5950,7 +5963,7 @@
     </row>
     <row r="47" spans="2:6" ht="24" customHeight="1">
       <c r="B47" s="10" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C47" s="11" t="b">
         <v>1</v>
@@ -5962,17 +5975,17 @@
         <v>31</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="24" customHeight="1">
       <c r="B48" s="13" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="24" customHeight="1">
       <c r="B50" s="8" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>26</v>
@@ -5989,7 +6002,7 @@
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1">
       <c r="B51" s="10" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C51" s="11" t="b">
         <v>1</v>
@@ -6001,7 +6014,7 @@
         <v>90</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1">
@@ -6009,10 +6022,10 @@
     </row>
     <row r="55" spans="1:6" ht="24" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -6021,12 +6034,12 @@
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1">
       <c r="B56" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="24" customHeight="1">
       <c r="B58" s="8" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>26</v>
@@ -6043,7 +6056,7 @@
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1">
       <c r="B59" s="10" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C59" s="11" t="b">
         <v>1</v>
@@ -6055,7 +6068,7 @@
         <v>90</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1">
@@ -6065,7 +6078,7 @@
     </row>
     <row r="62" spans="1:6" ht="24" customHeight="1">
       <c r="B62" s="8" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>26</v>
@@ -6082,7 +6095,7 @@
     </row>
     <row r="63" spans="1:6" ht="24" customHeight="1">
       <c r="B63" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C63" s="11" t="b">
         <v>1</v>
@@ -6094,7 +6107,7 @@
         <v>90</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1">
@@ -6102,10 +6115,10 @@
     </row>
     <row r="67" spans="1:6" ht="24" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -6114,12 +6127,12 @@
     </row>
     <row r="68" spans="1:6" ht="24" customHeight="1">
       <c r="B68" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="24" customHeight="1">
       <c r="B70" s="8" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>26</v>
@@ -6136,7 +6149,7 @@
     </row>
     <row r="71" spans="1:6" ht="24" customHeight="1">
       <c r="B71" s="10" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C71" s="11" t="b">
         <v>1</v>
@@ -6148,17 +6161,17 @@
         <v>38</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="24" customHeight="1">
       <c r="B72" s="13" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="24" customHeight="1">
       <c r="B74" s="8" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>26</v>
@@ -6175,7 +6188,7 @@
     </row>
     <row r="75" spans="1:6" ht="24" customHeight="1">
       <c r="B75" s="10" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C75" s="11" t="b">
         <v>1</v>
@@ -6187,17 +6200,17 @@
         <v>38</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="24" customHeight="1">
       <c r="B76" s="13" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="24" customHeight="1">
       <c r="B78" s="8" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>26</v>
@@ -6214,7 +6227,7 @@
     </row>
     <row r="79" spans="1:6" ht="24" customHeight="1">
       <c r="B79" s="10" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C79" s="11" t="b">
         <v>1</v>
@@ -6226,20 +6239,20 @@
         <v>38</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="24" customHeight="1">
       <c r="B80" s="13" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="24" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -6248,12 +6261,12 @@
     </row>
     <row r="84" spans="1:6" ht="24" customHeight="1">
       <c r="B84" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="24" customHeight="1">
       <c r="B86" s="8" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>26</v>
@@ -6270,7 +6283,7 @@
     </row>
     <row r="87" spans="1:6" ht="24" customHeight="1">
       <c r="B87" s="10" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C87" s="11" t="b">
         <v>1</v>
@@ -6282,15 +6295,17 @@
         <v>38</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="24" customHeight="1">
-      <c r="B88" s="13"/>
+      <c r="B88" s="13" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="90" spans="1:6" ht="24" customHeight="1">
       <c r="B90" s="8" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C90" s="9" t="s">
         <v>26</v>
@@ -6307,7 +6322,7 @@
     </row>
     <row r="91" spans="1:6" ht="24" customHeight="1">
       <c r="B91" s="10" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C91" s="11" t="b">
         <v>0</v>
@@ -6319,15 +6334,17 @@
         <v>137</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="24" customHeight="1">
-      <c r="B92" s="13"/>
+      <c r="B92" s="13">
+        <v>2000</v>
+      </c>
     </row>
     <row r="94" spans="1:6" ht="24" customHeight="1">
       <c r="B94" s="8" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C94" s="9" t="s">
         <v>26</v>
@@ -6344,7 +6361,7 @@
     </row>
     <row r="95" spans="1:6" ht="24" customHeight="1">
       <c r="B95" s="10" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C95" s="11" t="b">
         <v>0</v>
@@ -6356,7 +6373,7 @@
         <v>31</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="24" customHeight="1">
@@ -6364,7 +6381,7 @@
     </row>
     <row r="98" spans="1:6" ht="24" customHeight="1">
       <c r="B98" s="8" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C98" s="9" t="s">
         <v>26</v>
@@ -6381,7 +6398,7 @@
     </row>
     <row r="99" spans="1:6" ht="24" customHeight="1">
       <c r="B99" s="10" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C99" s="11" t="b">
         <v>1</v>
@@ -6393,15 +6410,17 @@
         <v>137</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="24" customHeight="1">
-      <c r="B100" s="13"/>
+      <c r="B100" s="13">
+        <v>2000</v>
+      </c>
     </row>
     <row r="102" spans="1:6" ht="24" customHeight="1">
       <c r="B102" s="8" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C102" s="9" t="s">
         <v>26</v>
@@ -6418,7 +6437,7 @@
     </row>
     <row r="103" spans="1:6" ht="24" customHeight="1">
       <c r="B103" s="10" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C103" s="11" t="b">
         <v>1</v>
@@ -6430,7 +6449,7 @@
         <v>90</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="24" customHeight="1">
@@ -6438,10 +6457,10 @@
     </row>
     <row r="107" spans="1:6" ht="24" customHeight="1">
       <c r="A107" s="4" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -6450,12 +6469,12 @@
     </row>
     <row r="108" spans="1:6" ht="24" customHeight="1">
       <c r="B108" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="24" customHeight="1">
       <c r="B110" s="8" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C110" s="9" t="s">
         <v>26</v>
@@ -6472,7 +6491,7 @@
     </row>
     <row r="111" spans="1:6" ht="24" customHeight="1">
       <c r="B111" s="10" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C111" s="11" t="b">
         <v>1</v>
@@ -6484,17 +6503,17 @@
         <v>38</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="24" customHeight="1">
       <c r="B112" s="13" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="114" spans="2:6" ht="24" customHeight="1">
       <c r="B114" s="8" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C114" s="9" t="s">
         <v>26</v>
@@ -6511,7 +6530,7 @@
     </row>
     <row r="115" spans="2:6" ht="24" customHeight="1">
       <c r="B115" s="10" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C115" s="11" t="b">
         <v>0</v>
@@ -6523,7 +6542,7 @@
         <v>137</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="116" spans="2:6" ht="24" customHeight="1">
@@ -6531,7 +6550,7 @@
     </row>
     <row r="118" spans="2:6" ht="24" customHeight="1">
       <c r="B118" s="8" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C118" s="9" t="s">
         <v>26</v>
@@ -6548,7 +6567,7 @@
     </row>
     <row r="119" spans="2:6" ht="24" customHeight="1">
       <c r="B119" s="10" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C119" s="11" t="b">
         <v>1</v>
@@ -6560,17 +6579,17 @@
         <v>31</v>
       </c>
       <c r="F119" s="12" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="120" spans="2:6" ht="24" customHeight="1">
       <c r="B120" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="122" spans="2:6" ht="24" customHeight="1">
       <c r="B122" s="8" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C122" s="9" t="s">
         <v>26</v>
@@ -6587,7 +6606,7 @@
     </row>
     <row r="123" spans="2:6" ht="24" customHeight="1">
       <c r="B123" s="10" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C123" s="11" t="b">
         <v>1</v>
@@ -6599,7 +6618,7 @@
         <v>31</v>
       </c>
       <c r="F123" s="12" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="124" spans="2:6" ht="24" customHeight="1">
@@ -6682,10 +6701,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -6694,10 +6713,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -6706,12 +6725,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>26</v>
@@ -6728,7 +6747,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -6740,7 +6759,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -6748,10 +6767,10 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -6760,12 +6779,12 @@
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
       <c r="B12" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>26</v>
@@ -6782,7 +6801,7 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>1</v>
@@ -6794,7 +6813,7 @@
         <v>90</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
@@ -6802,10 +6821,10 @@
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -6814,12 +6833,12 @@
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1">
       <c r="B20" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="24" customHeight="1">
       <c r="B22" s="8" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>26</v>
@@ -6836,7 +6855,7 @@
     </row>
     <row r="23" spans="1:6" ht="24" customHeight="1">
       <c r="B23" s="10" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C23" s="11" t="b">
         <v>1</v>
@@ -6848,17 +6867,17 @@
         <v>38</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1">
       <c r="B24" s="13" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="24" customHeight="1">
       <c r="B26" s="8" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>26</v>
@@ -6875,7 +6894,7 @@
     </row>
     <row r="27" spans="1:6" ht="24" customHeight="1">
       <c r="B27" s="10" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C27" s="11" t="b">
         <v>0</v>
@@ -6887,7 +6906,7 @@
         <v>76</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="24" customHeight="1">
@@ -6895,7 +6914,7 @@
     </row>
     <row r="30" spans="1:6" ht="24" customHeight="1">
       <c r="B30" s="8" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>26</v>
@@ -6912,7 +6931,7 @@
     </row>
     <row r="31" spans="1:6" ht="24" customHeight="1">
       <c r="B31" s="10" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C31" s="11" t="b">
         <v>0</v>
@@ -6924,7 +6943,7 @@
         <v>137</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1">
@@ -6932,7 +6951,7 @@
     </row>
     <row r="34" spans="1:6" ht="24" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>26</v>
@@ -6949,7 +6968,7 @@
     </row>
     <row r="35" spans="1:6" ht="24" customHeight="1">
       <c r="B35" s="10" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C35" s="11" t="b">
         <v>1</v>
@@ -6961,20 +6980,20 @@
         <v>31</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1">
       <c r="B36" s="13" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -6983,12 +7002,12 @@
     </row>
     <row r="40" spans="1:6" ht="24" customHeight="1">
       <c r="B40" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="24" customHeight="1">
       <c r="B42" s="8" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>26</v>
@@ -7005,7 +7024,7 @@
     </row>
     <row r="43" spans="1:6" ht="24" customHeight="1">
       <c r="B43" s="10" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C43" s="11" t="b">
         <v>1</v>
@@ -7017,17 +7036,17 @@
         <v>38</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="24" customHeight="1">
       <c r="B44" s="13" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="24" customHeight="1">
       <c r="B46" s="8" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>26</v>
@@ -7044,7 +7063,7 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1">
       <c r="B47" s="10" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C47" s="11" t="b">
         <v>0</v>
@@ -7056,7 +7075,7 @@
         <v>76</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="24" customHeight="1">
@@ -7064,7 +7083,7 @@
     </row>
     <row r="50" spans="1:6" ht="24" customHeight="1">
       <c r="B50" s="8" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>26</v>
@@ -7081,7 +7100,7 @@
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1">
       <c r="B51" s="10" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C51" s="11" t="b">
         <v>0</v>
@@ -7093,7 +7112,7 @@
         <v>137</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1">
@@ -7101,7 +7120,7 @@
     </row>
     <row r="54" spans="1:6" ht="24" customHeight="1">
       <c r="B54" s="8" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>26</v>
@@ -7118,7 +7137,7 @@
     </row>
     <row r="55" spans="1:6" ht="24" customHeight="1">
       <c r="B55" s="10" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C55" s="11" t="b">
         <v>1</v>
@@ -7130,20 +7149,20 @@
         <v>31</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1">
       <c r="B56" s="13" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -7152,12 +7171,12 @@
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1">
       <c r="B60" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="24" customHeight="1">
       <c r="B62" s="8" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>26</v>
@@ -7174,7 +7193,7 @@
     </row>
     <row r="63" spans="1:6" ht="24" customHeight="1">
       <c r="B63" s="10" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C63" s="11" t="b">
         <v>1</v>
@@ -7186,17 +7205,17 @@
         <v>38</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1">
       <c r="B64" s="13" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="24" customHeight="1">
       <c r="B66" s="8" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>26</v>
@@ -7213,7 +7232,7 @@
     </row>
     <row r="67" spans="1:6" ht="24" customHeight="1">
       <c r="B67" s="10" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C67" s="11" t="b">
         <v>1</v>
@@ -7225,17 +7244,17 @@
         <v>31</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="24" customHeight="1">
       <c r="B68" s="13" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="24" customHeight="1">
       <c r="B70" s="8" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>26</v>
@@ -7252,7 +7271,7 @@
     </row>
     <row r="71" spans="1:6" ht="24" customHeight="1">
       <c r="B71" s="10" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C71" s="11" t="b">
         <v>1</v>
@@ -7264,7 +7283,7 @@
         <v>90</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="24" customHeight="1">
@@ -7272,7 +7291,7 @@
     </row>
     <row r="74" spans="1:6" ht="24" customHeight="1">
       <c r="B74" s="8" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>26</v>
@@ -7289,7 +7308,7 @@
     </row>
     <row r="75" spans="1:6" ht="24" customHeight="1">
       <c r="B75" s="10" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C75" s="11" t="b">
         <v>1</v>
@@ -7301,7 +7320,7 @@
         <v>90</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="24" customHeight="1">
@@ -7309,10 +7328,10 @@
     </row>
     <row r="79" spans="1:6" ht="24" customHeight="1">
       <c r="A79" s="4" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -7321,12 +7340,12 @@
     </row>
     <row r="80" spans="1:6" ht="24" customHeight="1">
       <c r="B80" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="82" spans="2:6" ht="24" customHeight="1">
       <c r="B82" s="8" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>26</v>
@@ -7343,7 +7362,7 @@
     </row>
     <row r="83" spans="2:6" ht="24" customHeight="1">
       <c r="B83" s="10" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C83" s="11" t="b">
         <v>1</v>
@@ -7355,7 +7374,7 @@
         <v>38</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="84" spans="2:6" ht="24" customHeight="1">
@@ -7363,7 +7382,7 @@
     </row>
     <row r="86" spans="2:6" ht="24" customHeight="1">
       <c r="B86" s="8" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>26</v>
@@ -7380,7 +7399,7 @@
     </row>
     <row r="87" spans="2:6" ht="24" customHeight="1">
       <c r="B87" s="10" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C87" s="11" t="b">
         <v>0</v>
@@ -7392,7 +7411,7 @@
         <v>137</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="88" spans="2:6" ht="24" customHeight="1">
@@ -7400,7 +7419,7 @@
     </row>
     <row r="90" spans="2:6" ht="24" customHeight="1">
       <c r="B90" s="8" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C90" s="9" t="s">
         <v>26</v>
@@ -7417,7 +7436,7 @@
     </row>
     <row r="91" spans="2:6" ht="24" customHeight="1">
       <c r="B91" s="10" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C91" s="11" t="b">
         <v>1</v>
@@ -7429,7 +7448,7 @@
         <v>31</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="92" spans="2:6" ht="24" customHeight="1">
@@ -7437,7 +7456,7 @@
     </row>
     <row r="94" spans="2:6" ht="24" customHeight="1">
       <c r="B94" s="8" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C94" s="9" t="s">
         <v>26</v>
@@ -7454,7 +7473,7 @@
     </row>
     <row r="95" spans="2:6" ht="24" customHeight="1">
       <c r="B95" s="10" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C95" s="11" t="b">
         <v>1</v>
@@ -7466,20 +7485,20 @@
         <v>31</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="24" customHeight="1">
       <c r="B96" s="13" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="24" customHeight="1">
       <c r="A99" s="4" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -7488,12 +7507,12 @@
     </row>
     <row r="100" spans="1:6" ht="24" customHeight="1">
       <c r="B100" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="24" customHeight="1">
       <c r="B102" s="8" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C102" s="9" t="s">
         <v>26</v>
@@ -7510,7 +7529,7 @@
     </row>
     <row r="103" spans="1:6" ht="24" customHeight="1">
       <c r="B103" s="10" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C103" s="11" t="b">
         <v>1</v>
@@ -7522,7 +7541,7 @@
         <v>38</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="24" customHeight="1">
@@ -7530,7 +7549,7 @@
     </row>
     <row r="106" spans="1:6" ht="24" customHeight="1">
       <c r="B106" s="8" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C106" s="9" t="s">
         <v>26</v>
@@ -7547,7 +7566,7 @@
     </row>
     <row r="107" spans="1:6" ht="24" customHeight="1">
       <c r="B107" s="10" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C107" s="11" t="b">
         <v>0</v>
@@ -7559,7 +7578,7 @@
         <v>137</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="24" customHeight="1">
@@ -7567,7 +7586,7 @@
     </row>
     <row r="110" spans="1:6" ht="24" customHeight="1">
       <c r="B110" s="8" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C110" s="9" t="s">
         <v>26</v>
@@ -7584,7 +7603,7 @@
     </row>
     <row r="111" spans="1:6" ht="24" customHeight="1">
       <c r="B111" s="10" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C111" s="11" t="b">
         <v>1</v>
@@ -7596,7 +7615,7 @@
         <v>31</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="24" customHeight="1">
@@ -7604,7 +7623,7 @@
     </row>
     <row r="114" spans="2:6" ht="24" customHeight="1">
       <c r="B114" s="8" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C114" s="9" t="s">
         <v>26</v>
@@ -7621,7 +7640,7 @@
     </row>
     <row r="115" spans="2:6" ht="24" customHeight="1">
       <c r="B115" s="10" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C115" s="11" t="b">
         <v>1</v>
@@ -7633,12 +7652,12 @@
         <v>31</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="116" spans="2:6" ht="24" customHeight="1">
       <c r="B116" s="13" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -7702,10 +7721,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -7714,10 +7733,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -7726,12 +7745,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>26</v>
@@ -7748,7 +7767,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -7760,7 +7779,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -7768,7 +7787,7 @@
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>26</v>
@@ -7785,7 +7804,7 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="B11" s="10" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C11" s="11" t="b">
         <v>1</v>
@@ -7797,17 +7816,17 @@
         <v>38</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
       <c r="B12" s="13" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>26</v>
@@ -7824,7 +7843,7 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>1</v>
@@ -7836,7 +7855,7 @@
         <v>90</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
@@ -7844,10 +7863,10 @@
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -7856,12 +7875,12 @@
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1">
       <c r="B20" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="24" customHeight="1">
       <c r="B22" s="8" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>26</v>
@@ -7878,7 +7897,7 @@
     </row>
     <row r="23" spans="1:6" ht="24" customHeight="1">
       <c r="B23" s="10" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C23" s="11" t="b">
         <v>1</v>
@@ -7890,7 +7909,7 @@
         <v>31</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1">
@@ -7898,7 +7917,7 @@
     </row>
     <row r="26" spans="1:6" ht="24" customHeight="1">
       <c r="B26" s="8" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>26</v>
@@ -7915,7 +7934,7 @@
     </row>
     <row r="27" spans="1:6" ht="24" customHeight="1">
       <c r="B27" s="10" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C27" s="11" t="b">
         <v>1</v>
@@ -7927,17 +7946,17 @@
         <v>38</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="24" customHeight="1">
       <c r="B30" s="8" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>26</v>
@@ -7954,7 +7973,7 @@
     </row>
     <row r="31" spans="1:6" ht="24" customHeight="1">
       <c r="B31" s="10" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C31" s="11" t="b">
         <v>0</v>
@@ -7966,7 +7985,7 @@
         <v>137</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1">
@@ -7976,7 +7995,7 @@
     </row>
     <row r="34" spans="2:6" ht="24" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>26</v>
@@ -7993,7 +8012,7 @@
     </row>
     <row r="35" spans="2:6" ht="24" customHeight="1">
       <c r="B35" s="10" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C35" s="11" t="b">
         <v>1</v>
@@ -8005,12 +8024,12 @@
         <v>31</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="24" customHeight="1">
       <c r="B36" s="13" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -8048,10 +8067,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -8060,10 +8079,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -8072,12 +8091,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>26</v>
@@ -8094,7 +8113,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -8106,7 +8125,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -8114,7 +8133,7 @@
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>26</v>
@@ -8131,7 +8150,7 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="B11" s="10" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C11" s="11" t="b">
         <v>1</v>
@@ -8143,7 +8162,7 @@
         <v>31</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
@@ -8151,7 +8170,7 @@
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>26</v>
@@ -8168,7 +8187,7 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>0</v>
@@ -8180,17 +8199,17 @@
         <v>31</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
       <c r="B16" s="13" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>26</v>
@@ -8207,7 +8226,7 @@
     </row>
     <row r="19" spans="2:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>0</v>
@@ -8219,7 +8238,7 @@
         <v>31</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="24" customHeight="1">
@@ -8227,7 +8246,7 @@
     </row>
     <row r="22" spans="2:6" ht="24" customHeight="1">
       <c r="B22" s="8" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>26</v>
@@ -8244,7 +8263,7 @@
     </row>
     <row r="23" spans="2:6" ht="24" customHeight="1">
       <c r="B23" s="10" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C23" s="11" t="b">
         <v>1</v>
@@ -8256,7 +8275,7 @@
         <v>31</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="24" customHeight="1">
@@ -8264,7 +8283,7 @@
     </row>
     <row r="26" spans="2:6" ht="24" customHeight="1">
       <c r="B26" s="8" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>26</v>
@@ -8281,7 +8300,7 @@
     </row>
     <row r="27" spans="2:6" ht="24" customHeight="1">
       <c r="B27" s="10" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="C27" s="11" t="b">
         <v>1</v>
@@ -8293,7 +8312,7 @@
         <v>31</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="24" customHeight="1">
@@ -8301,7 +8320,7 @@
     </row>
     <row r="30" spans="2:6" ht="24" customHeight="1">
       <c r="B30" s="8" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>26</v>
@@ -8318,7 +8337,7 @@
     </row>
     <row r="31" spans="2:6" ht="24" customHeight="1">
       <c r="B31" s="10" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="C31" s="11" t="b">
         <v>1</v>
@@ -8330,20 +8349,20 @@
         <v>31</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="24" customHeight="1">
       <c r="B32" s="13" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="24" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -8352,12 +8371,12 @@
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1">
       <c r="B36" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="24" customHeight="1">
       <c r="B38" s="8" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>26</v>
@@ -8374,7 +8393,7 @@
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1">
       <c r="B39" s="10" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="C39" s="11" t="b">
         <v>1</v>
@@ -8386,20 +8405,20 @@
         <v>38</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="24" customHeight="1">
       <c r="B40" s="13" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="24" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -8408,12 +8427,12 @@
     </row>
     <row r="44" spans="1:6" ht="24" customHeight="1">
       <c r="B44" s="7" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="24" customHeight="1">
       <c r="B46" s="8" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>26</v>
@@ -8430,7 +8449,7 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1">
       <c r="B47" s="10" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C47" s="11" t="b">
         <v>1</v>
@@ -8442,20 +8461,20 @@
         <v>38</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="24" customHeight="1">
       <c r="B48" s="13" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -8464,12 +8483,12 @@
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1">
       <c r="B52" s="7" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="24" customHeight="1">
       <c r="B54" s="8" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>26</v>
@@ -8486,7 +8505,7 @@
     </row>
     <row r="55" spans="1:6" ht="24" customHeight="1">
       <c r="B55" s="10" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C55" s="11" t="b">
         <v>1</v>
@@ -8498,17 +8517,17 @@
         <v>38</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1">
       <c r="B56" s="13" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="24" customHeight="1">
       <c r="B58" s="8" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>26</v>
@@ -8525,7 +8544,7 @@
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1">
       <c r="B59" s="10" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C59" s="11" t="b">
         <v>1</v>
@@ -8537,7 +8556,7 @@
         <v>90</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1">
@@ -8547,7 +8566,7 @@
     </row>
     <row r="62" spans="1:6" ht="24" customHeight="1">
       <c r="B62" s="8" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>26</v>
@@ -8564,7 +8583,7 @@
     </row>
     <row r="63" spans="1:6" ht="24" customHeight="1">
       <c r="B63" s="10" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C63" s="11" t="b">
         <v>0</v>
@@ -8576,7 +8595,7 @@
         <v>31</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1">
@@ -8584,10 +8603,10 @@
     </row>
     <row r="67" spans="1:6" ht="24" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -8596,12 +8615,12 @@
     </row>
     <row r="68" spans="1:6" ht="24" customHeight="1">
       <c r="B68" s="7" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="24" customHeight="1">
       <c r="B70" s="8" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>26</v>
@@ -8618,7 +8637,7 @@
     </row>
     <row r="71" spans="1:6" ht="24" customHeight="1">
       <c r="B71" s="10" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C71" s="11" t="b">
         <v>1</v>
@@ -8630,7 +8649,7 @@
         <v>38</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="24" customHeight="1">
@@ -8638,7 +8657,7 @@
     </row>
     <row r="74" spans="1:6" ht="24" customHeight="1">
       <c r="B74" s="8" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>26</v>
@@ -8655,7 +8674,7 @@
     </row>
     <row r="75" spans="1:6" ht="24" customHeight="1">
       <c r="B75" s="10" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C75" s="11" t="b">
         <v>1</v>
@@ -8667,7 +8686,7 @@
         <v>38</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="24" customHeight="1">
@@ -8675,7 +8694,7 @@
     </row>
     <row r="78" spans="1:6" ht="24" customHeight="1">
       <c r="B78" s="8" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>26</v>
@@ -8692,7 +8711,7 @@
     </row>
     <row r="79" spans="1:6" ht="24" customHeight="1">
       <c r="B79" s="10" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C79" s="11" t="b">
         <v>1</v>
@@ -8704,7 +8723,7 @@
         <v>31</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="24" customHeight="1">

--- a/cmip6/models/ipsl-cm6a-lr/cmip6_ipsl_ipsl-cm6a-lr_ocean.xlsx
+++ b/cmip6/models/ipsl-cm6a-lr/cmip6_ipsl_ipsl-cm6a-lr_ocean.xlsx
@@ -46,7 +46,7 @@
     <t>IPSL-CM6A-LR</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Ocean</t>

--- a/cmip6/models/ipsl-cm6a-lr/cmip6_ipsl_ipsl-cm6a-lr_ocean.xlsx
+++ b/cmip6/models/ipsl-cm6a-lr/cmip6_ipsl_ipsl-cm6a-lr_ocean.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="829">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -166,7 +166,7 @@
     <t>cmip6.ocean.key_properties.name</t>
   </si>
   <si>
-    <t>NEMO : Nucleus for European Modelling of the Ocean version 3.2 (OPZ)</t>
+    <t>NEMO : Nucleus for European Modelling of the Ocean version 3.2 (OPA)</t>
   </si>
   <si>
     <t>1.1.1.2 *</t>
@@ -224,10 +224,10 @@
     <t>OGCM</t>
   </si>
   <si>
-    <t>Slab ocean</t>
-  </si>
-  <si>
-    <t>Mixed layer ocean</t>
+    <t>slab ocean</t>
+  </si>
+  <si>
+    <t>mixed layer ocean</t>
   </si>
   <si>
     <t>Other: document in cell to the right</t>
@@ -284,7 +284,7 @@
     <t>W-velocity</t>
   </si>
   <si>
-    <t>SSH</t>
+    <t>SSH: Sea Surface Height</t>
   </si>
   <si>
     <t>1.2.1</t>
@@ -443,7 +443,7 @@
     <t>6000 years BP</t>
   </si>
   <si>
-    <t>LGM</t>
+    <t>LGM: Last Glacial Maximum</t>
   </si>
   <si>
     <t>Pliocene</t>
@@ -864,16 +864,16 @@
     <t>S-coordinate</t>
   </si>
   <si>
-    <t>Isopycnic - sigma 0</t>
-  </si>
-  <si>
-    <t>Isopycnic - sigma 2</t>
-  </si>
-  <si>
-    <t>Isopycnic - sigma 4</t>
-  </si>
-  <si>
-    <t>Isopycnic - other</t>
+    <t>Isopycnic - sigma 0: Density referenced to the surface</t>
+  </si>
+  <si>
+    <t>Isopycnic - sigma 2: Density referenced to 2000 m</t>
+  </si>
+  <si>
+    <t>Isopycnic - sigma 4: Density referenced to 4000 m</t>
+  </si>
+  <si>
+    <t>Isopycnic - other: Other density-based coordinate</t>
   </si>
   <si>
     <t>Hybrid / Z+S</t>
@@ -966,6 +966,9 @@
     <t>cmip6.ocean.grid.discretisation.horizontal.scheme</t>
   </si>
   <si>
+    <t>Other: finite differences</t>
+  </si>
+  <si>
     <t>Finite difference</t>
   </si>
   <si>
@@ -1017,133 +1020,136 @@
     <t>cmip6.ocean.timestepping_framework.diurnal_cycle</t>
   </si>
   <si>
+    <t>None: No diurnal cycle in ocean</t>
+  </si>
+  <si>
+    <t>Via coupling: Diurnal cycle via coupling frequency</t>
+  </si>
+  <si>
+    <t>Specific treatment: Specific treament</t>
+  </si>
+  <si>
+    <t>3.2.1</t>
+  </si>
+  <si>
+    <t>Timestepping Framework --&gt; Tracers</t>
+  </si>
+  <si>
+    <t>Properties of tracers time stepping in ocean</t>
+  </si>
+  <si>
+    <t>3.2.1.1 *</t>
+  </si>
+  <si>
+    <t>Tracers time stepping scheme</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.timestepping_framework.tracers.scheme</t>
+  </si>
+  <si>
+    <t>Leap-frog + Asselin filter: Leap-frog scheme with Asselin filter</t>
+  </si>
+  <si>
+    <t>Leap-frog + Periodic Euler: Leap-frog scheme with Periodic Euler</t>
+  </si>
+  <si>
+    <t>Predictor-corrector: Predictor-corrector scheme</t>
+  </si>
+  <si>
+    <t>Runge-Kutta 2: Runge-Kutta 2 scheme</t>
+  </si>
+  <si>
+    <t>AM3-LF: AM3-LF such as used in ROMS</t>
+  </si>
+  <si>
+    <t>Forward-backward: Forward-backward scheme</t>
+  </si>
+  <si>
+    <t>Forward operator: Forward operator scheme</t>
+  </si>
+  <si>
+    <t>3.2.1.2 *</t>
+  </si>
+  <si>
+    <t>Time Step</t>
+  </si>
+  <si>
+    <t>Tracers time step (in seconds)</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.timestepping_framework.tracers.time_step</t>
+  </si>
+  <si>
+    <t>3.3.1</t>
+  </si>
+  <si>
+    <t>Timestepping Framework --&gt; Baroclinic Dynamics</t>
+  </si>
+  <si>
+    <t>Baroclinic dynamics in ocean</t>
+  </si>
+  <si>
+    <t>3.3.1.1 *</t>
+  </si>
+  <si>
+    <t>Baroclinic dynamics type</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.timestepping_framework.baroclinic_dynamics.type</t>
+  </si>
+  <si>
+    <t>Preconditioned conjugate gradient</t>
+  </si>
+  <si>
+    <t>Sub cyling: Sub cycling relative to tracers</t>
+  </si>
+  <si>
+    <t>3.3.1.2 *</t>
+  </si>
+  <si>
+    <t>Baroclinic dynamics scheme</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.timestepping_framework.baroclinic_dynamics.scheme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1.3 </t>
+  </si>
+  <si>
+    <t>Baroclinic time step (in seconds)</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.timestepping_framework.baroclinic_dynamics.time_step</t>
+  </si>
+  <si>
+    <t>3.4.1</t>
+  </si>
+  <si>
+    <t>Timestepping Framework --&gt; Barotropic</t>
+  </si>
+  <si>
+    <t>Barotropic time stepping in ocean</t>
+  </si>
+  <si>
+    <t>3.4.1.1 *</t>
+  </si>
+  <si>
+    <t>Splitting</t>
+  </si>
+  <si>
+    <t>Time splitting method</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.timestepping_framework.barotropic.splitting</t>
+  </si>
+  <si>
     <t>None</t>
   </si>
   <si>
-    <t>Via coupling</t>
-  </si>
-  <si>
-    <t>Specific treatment</t>
-  </si>
-  <si>
-    <t>3.2.1</t>
-  </si>
-  <si>
-    <t>Timestepping Framework --&gt; Tracers</t>
-  </si>
-  <si>
-    <t>Properties of tracers time stepping in ocean</t>
-  </si>
-  <si>
-    <t>3.2.1.1 *</t>
-  </si>
-  <si>
-    <t>Tracers time stepping scheme</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.timestepping_framework.tracers.scheme</t>
-  </si>
-  <si>
-    <t>Leap-frog + Asselin filter</t>
-  </si>
-  <si>
-    <t>Leap-frog + Periodic Euler</t>
-  </si>
-  <si>
-    <t>Predictor-corrector</t>
-  </si>
-  <si>
-    <t>Runge-Kutta 2</t>
-  </si>
-  <si>
-    <t>AM3-LF</t>
-  </si>
-  <si>
-    <t>Forward-backward</t>
-  </si>
-  <si>
-    <t>Forward operator</t>
-  </si>
-  <si>
-    <t>3.2.1.2 *</t>
-  </si>
-  <si>
-    <t>Time Step</t>
-  </si>
-  <si>
-    <t>Tracers time step (in seconds)</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.timestepping_framework.tracers.time_step</t>
-  </si>
-  <si>
-    <t>3.3.1</t>
-  </si>
-  <si>
-    <t>Timestepping Framework --&gt; Baroclinic Dynamics</t>
-  </si>
-  <si>
-    <t>Baroclinic dynamics in ocean</t>
-  </si>
-  <si>
-    <t>3.3.1.1 *</t>
-  </si>
-  <si>
-    <t>Baroclinic dynamics type</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.timestepping_framework.baroclinic_dynamics.type</t>
-  </si>
-  <si>
-    <t>Preconditioned conjugate gradient</t>
-  </si>
-  <si>
-    <t>Sub cyling</t>
-  </si>
-  <si>
-    <t>3.3.1.2 *</t>
-  </si>
-  <si>
-    <t>Baroclinic dynamics scheme</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.timestepping_framework.baroclinic_dynamics.scheme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1.3 </t>
-  </si>
-  <si>
-    <t>Baroclinic time step (in seconds)</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.timestepping_framework.baroclinic_dynamics.time_step</t>
-  </si>
-  <si>
-    <t>3.4.1</t>
-  </si>
-  <si>
-    <t>Timestepping Framework --&gt; Barotropic</t>
-  </si>
-  <si>
-    <t>Barotropic time stepping in ocean</t>
-  </si>
-  <si>
-    <t>3.4.1.1 *</t>
-  </si>
-  <si>
-    <t>Splitting</t>
-  </si>
-  <si>
-    <t>Time splitting method</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.timestepping_framework.barotropic.splitting</t>
-  </si>
-  <si>
-    <t>Split explicit</t>
-  </si>
-  <si>
-    <t>Implicit</t>
+    <t>split explicit</t>
+  </si>
+  <si>
+    <t>implicit</t>
   </si>
   <si>
     <t xml:space="preserve">3.4.1.2 </t>
@@ -1413,10 +1419,13 @@
     <t>cmip6.ocean.lateral_physics.scheme</t>
   </si>
   <si>
-    <t>Eddy active</t>
-  </si>
-  <si>
-    <t>Eddy admitting</t>
+    <t>None: No transient eddies in ocean</t>
+  </si>
+  <si>
+    <t>Eddy active: Full resolution of eddies</t>
+  </si>
+  <si>
+    <t>Eddy admitting: Some eddy activity permitted by resolution</t>
   </si>
   <si>
     <t>5.1.2</t>
@@ -1464,10 +1473,10 @@
     <t>cmip6.ocean.lateral_physics.momentum.operator.order</t>
   </si>
   <si>
-    <t>Harmonic</t>
-  </si>
-  <si>
-    <t>Bi-harmonic</t>
+    <t>Harmonic: Second order</t>
+  </si>
+  <si>
+    <t>Bi-harmonic: Fourth order</t>
   </si>
   <si>
     <t>5.1.2.3 *</t>
@@ -1482,10 +1491,10 @@
     <t>cmip6.ocean.lateral_physics.momentum.operator.discretisation</t>
   </si>
   <si>
-    <t>Second order</t>
-  </si>
-  <si>
-    <t>Higher order</t>
+    <t>Second order: Second order</t>
+  </si>
+  <si>
+    <t>Higher order: Higher order</t>
   </si>
   <si>
     <t>Flux limiter</t>
@@ -1713,7 +1722,7 @@
     <t>cmip6.ocean.lateral_physics.tracers.eddy_induced_velocity.type</t>
   </si>
   <si>
-    <t>GM</t>
+    <t>GM: Gent &amp; McWilliams</t>
   </si>
   <si>
     <t xml:space="preserve">5.2.4.2 </t>
@@ -2235,6 +2244,9 @@
   </si>
   <si>
     <t>cmip6.ocean.uplow_boundaries.bottom_boundary_layer.sill_overflow</t>
+  </si>
+  <si>
+    <t>No specific treatment</t>
   </si>
   <si>
     <t>8.1.1</t>
@@ -3158,20 +3170,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -3182,10 +3194,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3193,7 +3205,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -3204,10 +3216,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3220,10 +3232,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3231,10 +3243,10 @@
         <v>44</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3242,10 +3254,10 @@
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
@@ -3253,10 +3265,10 @@
         <v>44</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -3266,15 +3278,15 @@
     </row>
     <row r="20" spans="1:3" ht="178" customHeight="1">
       <c r="B20" s="11" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -3282,10 +3294,10 @@
         <v>44</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3298,10 +3310,10 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
@@ -3309,10 +3321,10 @@
         <v>44</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
@@ -3325,10 +3337,10 @@
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="24" customHeight="1">
@@ -3336,10 +3348,10 @@
         <v>44</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="24" customHeight="1">
@@ -3352,10 +3364,10 @@
     </row>
     <row r="37" spans="1:32" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="24" customHeight="1">
@@ -3363,10 +3375,10 @@
         <v>44</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="24" customHeight="1">
@@ -3376,25 +3388,25 @@
     </row>
     <row r="40" spans="1:32" ht="178" customHeight="1">
       <c r="B40" s="11" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="43" spans="1:32" ht="24" customHeight="1">
       <c r="A43" s="12" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
     </row>
     <row r="44" spans="1:32" ht="24" customHeight="1">
       <c r="B44" s="13" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>141</v>
@@ -3405,10 +3417,10 @@
         <v>61</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
     </row>
     <row r="48" spans="1:32" ht="24" customHeight="1">
@@ -3419,16 +3431,16 @@
         <v>93</v>
       </c>
       <c r="AB48" s="6" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="AC48" s="6" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="AD48" s="6" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="AE48" s="6" t="s">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="AF48" s="6" t="s">
         <v>67</v>
@@ -3436,20 +3448,20 @@
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
     </row>
     <row r="52" spans="1:30" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>141</v>
@@ -3460,24 +3472,24 @@
         <v>61</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
       <c r="B56" s="11" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="AA56" s="6" t="s">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="AB56" s="6" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="AC56" s="6" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="AD56" s="6" t="s">
         <v>67</v>
@@ -3485,20 +3497,20 @@
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="60" spans="1:30" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>238</v>
@@ -3509,24 +3521,24 @@
         <v>61</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="B64" s="11" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="AA64" s="6" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="AB64" s="6" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="AC64" s="6" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="AD64" s="6" t="s">
         <v>67</v>
@@ -3534,10 +3546,10 @@
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
@@ -3545,10 +3557,10 @@
         <v>142</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
@@ -3558,10 +3570,10 @@
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
@@ -3569,10 +3581,10 @@
         <v>44</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
@@ -3585,10 +3597,10 @@
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
@@ -3596,10 +3608,10 @@
         <v>44</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
@@ -3612,23 +3624,23 @@
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
       <c r="A81" s="12" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="24" customHeight="1">
       <c r="B82" s="13" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
     </row>
     <row r="84" spans="1:30" ht="24" customHeight="1">
       <c r="A84" s="9" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
     </row>
     <row r="85" spans="1:30" ht="24" customHeight="1">
@@ -3636,19 +3648,19 @@
         <v>61</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
     </row>
     <row r="86" spans="1:30" ht="24" customHeight="1">
       <c r="B86" s="11"/>
       <c r="AA86" s="6" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="AB86" s="6" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="AC86" s="6" t="s">
         <v>67</v>
@@ -3656,10 +3668,10 @@
     </row>
     <row r="88" spans="1:30" ht="24" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
@@ -3667,22 +3679,22 @@
         <v>61</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
     </row>
     <row r="90" spans="1:30" ht="24" customHeight="1">
       <c r="B90" s="11"/>
       <c r="AA90" s="6" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="AB90" s="6" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="AC90" s="6" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="AD90" s="6" t="s">
         <v>67</v>
@@ -3690,10 +3702,10 @@
     </row>
     <row r="92" spans="1:30" ht="24" customHeight="1">
       <c r="A92" s="9" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
@@ -3701,10 +3713,10 @@
         <v>44</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="24" customHeight="1">
@@ -5503,18 +5515,20 @@
       </c>
     </row>
     <row r="39" spans="1:31" ht="24" customHeight="1">
-      <c r="B39" s="11"/>
+      <c r="B39" s="11" t="s">
+        <v>311</v>
+      </c>
       <c r="AA39" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AE39" s="6" t="s">
         <v>67</v>
@@ -5558,20 +5572,20 @@
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -5582,10 +5596,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
@@ -5593,7 +5607,7 @@
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -5604,10 +5618,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
@@ -5620,10 +5634,10 @@
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
@@ -5631,22 +5645,22 @@
         <v>61</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AD15" s="6" t="s">
         <v>67</v>
@@ -5654,20 +5668,20 @@
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>238</v>
@@ -5678,36 +5692,36 @@
         <v>61</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AE23" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF23" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG23" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AH23" s="6" t="s">
         <v>67</v>
@@ -5715,10 +5729,10 @@
     </row>
     <row r="25" spans="1:34" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26" spans="1:34" ht="24" customHeight="1">
@@ -5726,10 +5740,10 @@
         <v>197</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="24" customHeight="1">
@@ -5737,20 +5751,20 @@
     </row>
     <row r="30" spans="1:34" ht="24" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="31" spans="1:34" ht="24" customHeight="1">
       <c r="B31" s="13" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="33" spans="1:34" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>141</v>
@@ -5761,19 +5775,19 @@
         <v>61</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="35" spans="1:34" ht="24" customHeight="1">
       <c r="B35" s="11"/>
       <c r="AA35" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AC35" s="6" t="s">
         <v>67</v>
@@ -5781,7 +5795,7 @@
     </row>
     <row r="37" spans="1:34" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>238</v>
@@ -5792,34 +5806,34 @@
         <v>61</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="39" spans="1:34" ht="24" customHeight="1">
       <c r="B39" s="11"/>
       <c r="AA39" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AE39" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF39" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG39" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AH39" s="6" t="s">
         <v>67</v>
@@ -5827,10 +5841,10 @@
     </row>
     <row r="41" spans="1:34" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="42" spans="1:34" ht="24" customHeight="1">
@@ -5838,10 +5852,10 @@
         <v>197</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="43" spans="1:34" ht="24" customHeight="1">
@@ -5849,23 +5863,23 @@
     </row>
     <row r="46" spans="1:34" ht="24" customHeight="1">
       <c r="A46" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="47" spans="1:34" ht="24" customHeight="1">
       <c r="B47" s="13" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
@@ -5873,22 +5887,22 @@
         <v>61</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AD51" s="6" t="s">
         <v>67</v>
@@ -5896,10 +5910,10 @@
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
@@ -5907,10 +5921,10 @@
         <v>197</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
@@ -5918,23 +5932,23 @@
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="B59" s="13" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
@@ -5942,10 +5956,10 @@
         <v>44</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
@@ -5998,20 +6012,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -6022,10 +6036,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -6033,7 +6047,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -6044,10 +6058,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -6060,20 +6074,20 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>141</v>
@@ -6084,29 +6098,29 @@
         <v>61</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="24" customHeight="1">
@@ -6114,23 +6128,23 @@
         <v>44</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="25" spans="1:28" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="24" customHeight="1">
@@ -6138,10 +6152,10 @@
         <v>142</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="24" customHeight="1">
@@ -6149,23 +6163,23 @@
     </row>
     <row r="30" spans="1:28" ht="24" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="31" spans="1:28" ht="24" customHeight="1">
       <c r="B31" s="13" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
@@ -6173,10 +6187,10 @@
         <v>197</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -6184,10 +6198,10 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -6195,10 +6209,10 @@
         <v>142</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
@@ -6208,10 +6222,10 @@
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
@@ -6219,10 +6233,10 @@
         <v>121</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -6230,7 +6244,7 @@
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>43</v>
@@ -6241,23 +6255,23 @@
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="B47" s="11" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="49" spans="1:31" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="24" customHeight="1">
@@ -6265,10 +6279,10 @@
         <v>61</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="51" spans="1:31" ht="24" customHeight="1">
@@ -6279,16 +6293,16 @@
     <row r="52" spans="1:31" ht="24" customHeight="1">
       <c r="B52" s="11"/>
       <c r="AA52" s="6" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AB52" s="6" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AC52" s="6" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AD52" s="6" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AE52" s="6" t="s">
         <v>67</v>
@@ -6296,10 +6310,10 @@
     </row>
     <row r="54" spans="1:31" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="55" spans="1:31" ht="24" customHeight="1">
@@ -6307,10 +6321,10 @@
         <v>44</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="24" customHeight="1">
@@ -6318,20 +6332,20 @@
     </row>
     <row r="59" spans="1:31" ht="24" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="60" spans="1:31" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>43</v>
@@ -6342,23 +6356,23 @@
         <v>44</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="24" customHeight="1">
       <c r="B64" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
@@ -6366,14 +6380,16 @@
         <v>142</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
-      <c r="B68" s="11"/>
+      <c r="B68" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="7">
@@ -6420,20 +6436,20 @@
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -6444,10 +6460,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
@@ -6455,7 +6471,7 @@
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -6466,10 +6482,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="24" customHeight="1">
@@ -6482,7 +6498,7 @@
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>238</v>
@@ -6493,43 +6509,43 @@
         <v>61</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
-        <v>328</v>
+        <v>462</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="24" customHeight="1">
@@ -6537,30 +6553,30 @@
         <v>61</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="AE23" s="6" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="AF23" s="6" t="s">
         <v>67</v>
@@ -6568,10 +6584,10 @@
     </row>
     <row r="25" spans="1:32" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="24" customHeight="1">
@@ -6579,21 +6595,21 @@
         <v>61</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="24" customHeight="1">
       <c r="B27" s="11" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="AA27" s="6" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="AC27" s="6" t="s">
         <v>67</v>
@@ -6601,10 +6617,10 @@
     </row>
     <row r="29" spans="1:32" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="24" customHeight="1">
@@ -6612,24 +6628,24 @@
         <v>61</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="24" customHeight="1">
       <c r="B31" s="11" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="AA31" s="6" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="AD31" s="6" t="s">
         <v>67</v>
@@ -6637,20 +6653,20 @@
     </row>
     <row r="34" spans="1:30" ht="24" customHeight="1">
       <c r="A34" s="12" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="24" customHeight="1">
       <c r="B35" s="13" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="37" spans="1:30" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>141</v>
@@ -6661,24 +6677,24 @@
         <v>61</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="24" customHeight="1">
       <c r="B39" s="11" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="AA39" s="6" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="AD39" s="6" t="s">
         <v>67</v>
@@ -6686,10 +6702,10 @@
     </row>
     <row r="41" spans="1:30" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="24" customHeight="1">
@@ -6697,10 +6713,10 @@
         <v>197</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="24" customHeight="1">
@@ -6708,10 +6724,10 @@
     </row>
     <row r="45" spans="1:30" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="46" spans="1:30" ht="24" customHeight="1">
@@ -6719,23 +6735,23 @@
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="24" customHeight="1">
       <c r="B47" s="11" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
@@ -6743,23 +6759,23 @@
         <v>44</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="B51" s="11" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
@@ -6767,10 +6783,10 @@
         <v>142</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -6778,23 +6794,23 @@
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="B59" s="13" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
@@ -6802,10 +6818,10 @@
         <v>142</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
@@ -6815,10 +6831,10 @@
     </row>
     <row r="65" spans="1:32" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="24" customHeight="1">
@@ -6826,10 +6842,10 @@
         <v>142</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="67" spans="1:32" ht="24" customHeight="1">
@@ -6837,23 +6853,23 @@
     </row>
     <row r="70" spans="1:32" ht="24" customHeight="1">
       <c r="A70" s="12" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="71" spans="1:32" ht="24" customHeight="1">
       <c r="B71" s="13" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="73" spans="1:32" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="74" spans="1:32" ht="24" customHeight="1">
@@ -6861,30 +6877,30 @@
         <v>61</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="24" customHeight="1">
       <c r="B75" s="11" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="AA75" s="6" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="AB75" s="6" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="AC75" s="6" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="AD75" s="6" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="AE75" s="6" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="AF75" s="6" t="s">
         <v>67</v>
@@ -6892,10 +6908,10 @@
     </row>
     <row r="77" spans="1:32" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="78" spans="1:32" ht="24" customHeight="1">
@@ -6903,21 +6919,21 @@
         <v>61</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="79" spans="1:32" ht="24" customHeight="1">
       <c r="B79" s="11" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="AA79" s="6" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="AB79" s="6" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="AC79" s="6" t="s">
         <v>67</v>
@@ -6925,10 +6941,10 @@
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="24" customHeight="1">
@@ -6936,24 +6952,24 @@
         <v>61</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="83" spans="1:30" ht="24" customHeight="1">
       <c r="B83" s="11" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="AA83" s="6" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="AB83" s="6" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="AC83" s="6" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="AD83" s="6" t="s">
         <v>67</v>
@@ -6961,20 +6977,20 @@
     </row>
     <row r="86" spans="1:30" ht="24" customHeight="1">
       <c r="A86" s="12" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="87" spans="1:30" ht="24" customHeight="1">
       <c r="B87" s="13" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B89" s="9" t="s">
         <v>141</v>
@@ -6985,24 +7001,24 @@
         <v>61</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="91" spans="1:30" ht="24" customHeight="1">
       <c r="B91" s="11" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="AA91" s="6" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="AB91" s="6" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="AC91" s="6" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="AD91" s="6" t="s">
         <v>67</v>
@@ -7010,10 +7026,10 @@
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="24" customHeight="1">
@@ -7021,10 +7037,10 @@
         <v>197</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="24" customHeight="1">
@@ -7034,10 +7050,10 @@
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -7045,10 +7061,10 @@
         <v>44</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
@@ -7056,10 +7072,10 @@
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="A101" s="9" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
@@ -7067,10 +7083,10 @@
         <v>197</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -7080,10 +7096,10 @@
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
@@ -7091,10 +7107,10 @@
         <v>142</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
@@ -7102,20 +7118,20 @@
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="12" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="B111" s="13" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="113" spans="1:28" ht="24" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B113" s="9" t="s">
         <v>141</v>
@@ -7126,18 +7142,18 @@
         <v>61</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="115" spans="1:28" ht="24" customHeight="1">
       <c r="B115" s="11" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="AA115" s="6" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="AB115" s="6" t="s">
         <v>67</v>
@@ -7145,10 +7161,10 @@
     </row>
     <row r="117" spans="1:28" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="118" spans="1:28" ht="24" customHeight="1">
@@ -7156,10 +7172,10 @@
         <v>197</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="119" spans="1:28" ht="24" customHeight="1">
@@ -7167,10 +7183,10 @@
     </row>
     <row r="121" spans="1:28" ht="24" customHeight="1">
       <c r="A121" s="9" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="122" spans="1:28" ht="24" customHeight="1">
@@ -7178,23 +7194,23 @@
         <v>44</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="123" spans="1:28" ht="24" customHeight="1">
       <c r="B123" s="11" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="125" spans="1:28" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="126" spans="1:28" ht="24" customHeight="1">
@@ -7202,10 +7218,10 @@
         <v>44</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="127" spans="1:28" ht="24" customHeight="1">
@@ -7288,20 +7304,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -7312,10 +7328,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7323,7 +7339,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -7334,10 +7350,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -7347,28 +7363,28 @@
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="24" customHeight="1">
@@ -7376,10 +7392,10 @@
         <v>142</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="24" customHeight="1">
@@ -7387,20 +7403,20 @@
     </row>
     <row r="22" spans="1:35" ht="24" customHeight="1">
       <c r="A22" s="12" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="24" customHeight="1">
       <c r="B23" s="13" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>141</v>
@@ -7411,39 +7427,39 @@
         <v>61</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="24" customHeight="1">
       <c r="B27" s="11" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="AA27" s="6" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="AE27" s="6" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="AF27" s="6" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="AG27" s="6" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="AH27" s="6" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="AI27" s="6" t="s">
         <v>67</v>
@@ -7451,10 +7467,10 @@
     </row>
     <row r="29" spans="1:35" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="24" customHeight="1">
@@ -7462,10 +7478,10 @@
         <v>121</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="31" spans="1:35" ht="24" customHeight="1">
@@ -7473,10 +7489,10 @@
     </row>
     <row r="33" spans="1:35" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="34" spans="1:35" ht="24" customHeight="1">
@@ -7484,10 +7500,10 @@
         <v>197</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="35" spans="1:35" ht="24" customHeight="1">
@@ -7495,10 +7511,10 @@
     </row>
     <row r="37" spans="1:35" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="38" spans="1:35" ht="24" customHeight="1">
@@ -7506,33 +7522,33 @@
         <v>44</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="39" spans="1:35" ht="24" customHeight="1">
       <c r="B39" s="11" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="42" spans="1:35" ht="24" customHeight="1">
       <c r="A42" s="12" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="43" spans="1:35" ht="24" customHeight="1">
       <c r="B43" s="13" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="45" spans="1:35" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>141</v>
@@ -7543,39 +7559,39 @@
         <v>61</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="47" spans="1:35" ht="24" customHeight="1">
       <c r="B47" s="11" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="AA47" s="6" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="AB47" s="6" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="AC47" s="6" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="AD47" s="6" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="AE47" s="6" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="AF47" s="6" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="AG47" s="6" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="AH47" s="6" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="AI47" s="6" t="s">
         <v>67</v>
@@ -7583,10 +7599,10 @@
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
@@ -7594,10 +7610,10 @@
         <v>121</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
@@ -7605,10 +7621,10 @@
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
@@ -7616,10 +7632,10 @@
         <v>197</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -7627,10 +7643,10 @@
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
@@ -7638,36 +7654,36 @@
         <v>44</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="B59" s="11" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="B63" s="13" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="66" spans="1:30" ht="24" customHeight="1">
@@ -7675,24 +7691,24 @@
         <v>61</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="B67" s="11" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="AA67" s="6" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="AB67" s="6" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="AC67" s="6" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="AD67" s="6" t="s">
         <v>67</v>
@@ -7700,10 +7716,10 @@
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="A69" s="9" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
     </row>
     <row r="70" spans="1:30" ht="24" customHeight="1">
@@ -7711,23 +7727,23 @@
         <v>44</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="B71" s="11" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="74" spans="1:30" ht="24" customHeight="1">
@@ -7735,10 +7751,10 @@
         <v>142</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
@@ -7746,10 +7762,10 @@
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
@@ -7757,10 +7773,10 @@
         <v>142</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
@@ -7768,20 +7784,20 @@
     </row>
     <row r="82" spans="1:33" ht="24" customHeight="1">
       <c r="A82" s="12" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
     </row>
     <row r="83" spans="1:33" ht="24" customHeight="1">
       <c r="B83" s="13" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="85" spans="1:33" ht="24" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="B85" s="9" t="s">
         <v>141</v>
@@ -7792,31 +7808,31 @@
         <v>61</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
     </row>
     <row r="87" spans="1:33" ht="24" customHeight="1">
       <c r="B87" s="11"/>
       <c r="AA87" s="6" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="AB87" s="6" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="AC87" s="6" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="AD87" s="6" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="AE87" s="6" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="AF87" s="6" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="AG87" s="6" t="s">
         <v>67</v>
@@ -7824,10 +7840,10 @@
     </row>
     <row r="89" spans="1:33" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="90" spans="1:33" ht="24" customHeight="1">
@@ -7835,10 +7851,10 @@
         <v>197</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
     </row>
     <row r="91" spans="1:33" ht="24" customHeight="1">
@@ -7846,10 +7862,10 @@
     </row>
     <row r="93" spans="1:33" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="94" spans="1:33" ht="24" customHeight="1">
@@ -7857,10 +7873,10 @@
         <v>142</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
     </row>
     <row r="95" spans="1:33" ht="24" customHeight="1">
@@ -7868,10 +7884,10 @@
     </row>
     <row r="97" spans="1:33" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="98" spans="1:33" ht="24" customHeight="1">
@@ -7879,33 +7895,33 @@
         <v>44</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
     </row>
     <row r="99" spans="1:33" ht="24" customHeight="1">
       <c r="B99" s="11" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="102" spans="1:33" ht="24" customHeight="1">
       <c r="A102" s="12" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
     </row>
     <row r="103" spans="1:33" ht="24" customHeight="1">
       <c r="B103" s="13" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
     </row>
     <row r="105" spans="1:33" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>141</v>
@@ -7916,31 +7932,31 @@
         <v>61</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
     </row>
     <row r="107" spans="1:33" ht="24" customHeight="1">
       <c r="B107" s="11"/>
       <c r="AA107" s="6" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="AB107" s="6" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="AC107" s="6" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="AD107" s="6" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="AE107" s="6" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="AF107" s="6" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="AG107" s="6" t="s">
         <v>67</v>
@@ -7948,10 +7964,10 @@
     </row>
     <row r="109" spans="1:33" ht="24" customHeight="1">
       <c r="A109" s="9" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="110" spans="1:33" ht="24" customHeight="1">
@@ -7959,10 +7975,10 @@
         <v>197</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
     </row>
     <row r="111" spans="1:33" ht="24" customHeight="1">
@@ -7970,10 +7986,10 @@
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
@@ -7981,10 +7997,10 @@
         <v>44</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -7992,10 +8008,10 @@
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
@@ -8003,14 +8019,16 @@
         <v>44</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
-      <c r="B119" s="11"/>
+      <c r="B119" s="11" t="s">
+        <v>635</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="15">
@@ -8082,20 +8100,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -8106,10 +8124,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -8117,7 +8135,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -8128,10 +8146,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -8144,20 +8162,20 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>238</v>
@@ -8168,36 +8186,36 @@
         <v>61</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="AF19" s="6" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="AG19" s="6" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="AH19" s="6" t="s">
         <v>67</v>
@@ -8205,10 +8223,10 @@
     </row>
     <row r="21" spans="1:34" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1">
@@ -8216,10 +8234,10 @@
         <v>142</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
@@ -8227,20 +8245,20 @@
     </row>
     <row r="26" spans="1:34" ht="24" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="24" customHeight="1">
       <c r="B27" s="13" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>54</v>
@@ -8251,10 +8269,10 @@
         <v>44</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
     </row>
     <row r="31" spans="1:34" ht="24" customHeight="1">
@@ -8267,10 +8285,10 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
@@ -8278,21 +8296,21 @@
         <v>61</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="B36" s="11" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="AA36" s="6" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="AC36" s="6" t="s">
         <v>67</v>
@@ -8300,10 +8318,10 @@
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
@@ -8311,10 +8329,10 @@
         <v>197</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
@@ -8324,10 +8342,10 @@
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
@@ -8335,10 +8353,10 @@
         <v>44</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -8347,7 +8365,9 @@
       </c>
     </row>
     <row r="45" spans="1:29" ht="178" customHeight="1">
-      <c r="B45" s="11"/>
+      <c r="B45" s="11" t="s">
+        <v>737</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="4">

--- a/cmip6/models/ipsl-cm6a-lr/cmip6_ipsl_ipsl-cm6a-lr_ocean.xlsx
+++ b/cmip6/models/ipsl-cm6a-lr/cmip6_ipsl_ipsl-cm6a-lr_ocean.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="825">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -166,7 +166,7 @@
     <t>cmip6.ocean.key_properties.name</t>
   </si>
   <si>
-    <t>NEMO : Nucleus for European Modelling of the Ocean version 3.2 (OPA)</t>
+    <t>NEMO : Nucleus for European Modelling of the Ocean version 3.2 (OPZ)</t>
   </si>
   <si>
     <t>1.1.1.2 *</t>
@@ -224,10 +224,10 @@
     <t>OGCM</t>
   </si>
   <si>
-    <t>slab ocean</t>
-  </si>
-  <si>
-    <t>mixed layer ocean</t>
+    <t>Slab ocean</t>
+  </si>
+  <si>
+    <t>Mixed layer ocean</t>
   </si>
   <si>
     <t>Other: document in cell to the right</t>
@@ -284,7 +284,7 @@
     <t>W-velocity</t>
   </si>
   <si>
-    <t>SSH: Sea Surface Height</t>
+    <t>SSH</t>
   </si>
   <si>
     <t>1.2.1</t>
@@ -443,7 +443,7 @@
     <t>6000 years BP</t>
   </si>
   <si>
-    <t>LGM: Last Glacial Maximum</t>
+    <t>LGM</t>
   </si>
   <si>
     <t>Pliocene</t>
@@ -864,16 +864,16 @@
     <t>S-coordinate</t>
   </si>
   <si>
-    <t>Isopycnic - sigma 0: Density referenced to the surface</t>
-  </si>
-  <si>
-    <t>Isopycnic - sigma 2: Density referenced to 2000 m</t>
-  </si>
-  <si>
-    <t>Isopycnic - sigma 4: Density referenced to 4000 m</t>
-  </si>
-  <si>
-    <t>Isopycnic - other: Other density-based coordinate</t>
+    <t>Isopycnic - sigma 0</t>
+  </si>
+  <si>
+    <t>Isopycnic - sigma 2</t>
+  </si>
+  <si>
+    <t>Isopycnic - sigma 4</t>
+  </si>
+  <si>
+    <t>Isopycnic - other</t>
   </si>
   <si>
     <t>Hybrid / Z+S</t>
@@ -966,9 +966,6 @@
     <t>cmip6.ocean.grid.discretisation.horizontal.scheme</t>
   </si>
   <si>
-    <t>Other: finite differences</t>
-  </si>
-  <si>
     <t>Finite difference</t>
   </si>
   <si>
@@ -1020,13 +1017,13 @@
     <t>cmip6.ocean.timestepping_framework.diurnal_cycle</t>
   </si>
   <si>
-    <t>None: No diurnal cycle in ocean</t>
-  </si>
-  <si>
-    <t>Via coupling: Diurnal cycle via coupling frequency</t>
-  </si>
-  <si>
-    <t>Specific treatment: Specific treament</t>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Via coupling</t>
+  </si>
+  <si>
+    <t>Specific treatment</t>
   </si>
   <si>
     <t>3.2.1</t>
@@ -1047,25 +1044,25 @@
     <t>cmip6.ocean.timestepping_framework.tracers.scheme</t>
   </si>
   <si>
-    <t>Leap-frog + Asselin filter: Leap-frog scheme with Asselin filter</t>
-  </si>
-  <si>
-    <t>Leap-frog + Periodic Euler: Leap-frog scheme with Periodic Euler</t>
-  </si>
-  <si>
-    <t>Predictor-corrector: Predictor-corrector scheme</t>
-  </si>
-  <si>
-    <t>Runge-Kutta 2: Runge-Kutta 2 scheme</t>
-  </si>
-  <si>
-    <t>AM3-LF: AM3-LF such as used in ROMS</t>
-  </si>
-  <si>
-    <t>Forward-backward: Forward-backward scheme</t>
-  </si>
-  <si>
-    <t>Forward operator: Forward operator scheme</t>
+    <t>Leap-frog + Asselin filter</t>
+  </si>
+  <si>
+    <t>Leap-frog + Periodic Euler</t>
+  </si>
+  <si>
+    <t>Predictor-corrector</t>
+  </si>
+  <si>
+    <t>Runge-Kutta 2</t>
+  </si>
+  <si>
+    <t>AM3-LF</t>
+  </si>
+  <si>
+    <t>Forward-backward</t>
+  </si>
+  <si>
+    <t>Forward operator</t>
   </si>
   <si>
     <t>3.2.1.2 *</t>
@@ -1101,7 +1098,7 @@
     <t>Preconditioned conjugate gradient</t>
   </si>
   <si>
-    <t>Sub cyling: Sub cycling relative to tracers</t>
+    <t>Sub cyling</t>
   </si>
   <si>
     <t>3.3.1.2 *</t>
@@ -1143,13 +1140,10 @@
     <t>cmip6.ocean.timestepping_framework.barotropic.splitting</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>split explicit</t>
-  </si>
-  <si>
-    <t>implicit</t>
+    <t>Split explicit</t>
+  </si>
+  <si>
+    <t>Implicit</t>
   </si>
   <si>
     <t xml:space="preserve">3.4.1.2 </t>
@@ -1419,13 +1413,10 @@
     <t>cmip6.ocean.lateral_physics.scheme</t>
   </si>
   <si>
-    <t>None: No transient eddies in ocean</t>
-  </si>
-  <si>
-    <t>Eddy active: Full resolution of eddies</t>
-  </si>
-  <si>
-    <t>Eddy admitting: Some eddy activity permitted by resolution</t>
+    <t>Eddy active</t>
+  </si>
+  <si>
+    <t>Eddy admitting</t>
   </si>
   <si>
     <t>5.1.2</t>
@@ -1473,10 +1464,10 @@
     <t>cmip6.ocean.lateral_physics.momentum.operator.order</t>
   </si>
   <si>
-    <t>Harmonic: Second order</t>
-  </si>
-  <si>
-    <t>Bi-harmonic: Fourth order</t>
+    <t>Harmonic</t>
+  </si>
+  <si>
+    <t>Bi-harmonic</t>
   </si>
   <si>
     <t>5.1.2.3 *</t>
@@ -1491,10 +1482,10 @@
     <t>cmip6.ocean.lateral_physics.momentum.operator.discretisation</t>
   </si>
   <si>
-    <t>Second order: Second order</t>
-  </si>
-  <si>
-    <t>Higher order: Higher order</t>
+    <t>Second order</t>
+  </si>
+  <si>
+    <t>Higher order</t>
   </si>
   <si>
     <t>Flux limiter</t>
@@ -1722,7 +1713,7 @@
     <t>cmip6.ocean.lateral_physics.tracers.eddy_induced_velocity.type</t>
   </si>
   <si>
-    <t>GM: Gent &amp; McWilliams</t>
+    <t>GM</t>
   </si>
   <si>
     <t xml:space="preserve">5.2.4.2 </t>
@@ -2244,9 +2235,6 @@
   </si>
   <si>
     <t>cmip6.ocean.uplow_boundaries.bottom_boundary_layer.sill_overflow</t>
-  </si>
-  <si>
-    <t>No specific treatment</t>
   </si>
   <si>
     <t>8.1.1</t>
@@ -3170,20 +3158,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -3194,10 +3182,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3205,7 +3193,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -3216,10 +3204,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3232,10 +3220,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3243,10 +3231,10 @@
         <v>44</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3254,10 +3242,10 @@
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
@@ -3265,10 +3253,10 @@
         <v>44</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -3278,15 +3266,15 @@
     </row>
     <row r="20" spans="1:3" ht="178" customHeight="1">
       <c r="B20" s="11" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -3294,10 +3282,10 @@
         <v>44</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3310,10 +3298,10 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
@@ -3321,10 +3309,10 @@
         <v>44</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
@@ -3337,10 +3325,10 @@
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="24" customHeight="1">
@@ -3348,10 +3336,10 @@
         <v>44</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="24" customHeight="1">
@@ -3364,10 +3352,10 @@
     </row>
     <row r="37" spans="1:32" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="24" customHeight="1">
@@ -3375,10 +3363,10 @@
         <v>44</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="24" customHeight="1">
@@ -3388,25 +3376,25 @@
     </row>
     <row r="40" spans="1:32" ht="178" customHeight="1">
       <c r="B40" s="11" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="43" spans="1:32" ht="24" customHeight="1">
       <c r="A43" s="12" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="44" spans="1:32" ht="24" customHeight="1">
       <c r="B44" s="13" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>141</v>
@@ -3417,10 +3405,10 @@
         <v>61</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="48" spans="1:32" ht="24" customHeight="1">
@@ -3431,16 +3419,16 @@
         <v>93</v>
       </c>
       <c r="AB48" s="6" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="AC48" s="6" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="AD48" s="6" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="AE48" s="6" t="s">
-        <v>370</v>
+        <v>328</v>
       </c>
       <c r="AF48" s="6" t="s">
         <v>67</v>
@@ -3448,20 +3436,20 @@
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="52" spans="1:30" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>141</v>
@@ -3472,24 +3460,24 @@
         <v>61</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
       <c r="B56" s="11" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="AA56" s="6" t="s">
-        <v>370</v>
+        <v>328</v>
       </c>
       <c r="AB56" s="6" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="AC56" s="6" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="AD56" s="6" t="s">
         <v>67</v>
@@ -3497,20 +3485,20 @@
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="60" spans="1:30" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>238</v>
@@ -3521,24 +3509,24 @@
         <v>61</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="B64" s="11" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="AA64" s="6" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="AB64" s="6" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="AC64" s="6" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="AD64" s="6" t="s">
         <v>67</v>
@@ -3546,10 +3534,10 @@
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
@@ -3557,10 +3545,10 @@
         <v>142</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
@@ -3570,10 +3558,10 @@
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
@@ -3581,10 +3569,10 @@
         <v>44</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
@@ -3597,10 +3585,10 @@
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
@@ -3608,10 +3596,10 @@
         <v>44</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
@@ -3624,23 +3612,23 @@
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
       <c r="A81" s="12" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="24" customHeight="1">
       <c r="B82" s="13" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="84" spans="1:30" ht="24" customHeight="1">
       <c r="A84" s="9" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="85" spans="1:30" ht="24" customHeight="1">
@@ -3648,19 +3636,19 @@
         <v>61</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="86" spans="1:30" ht="24" customHeight="1">
       <c r="B86" s="11"/>
       <c r="AA86" s="6" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="AB86" s="6" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="AC86" s="6" t="s">
         <v>67</v>
@@ -3668,10 +3656,10 @@
     </row>
     <row r="88" spans="1:30" ht="24" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
@@ -3679,22 +3667,22 @@
         <v>61</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="90" spans="1:30" ht="24" customHeight="1">
       <c r="B90" s="11"/>
       <c r="AA90" s="6" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="AB90" s="6" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="AC90" s="6" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="AD90" s="6" t="s">
         <v>67</v>
@@ -3702,10 +3690,10 @@
     </row>
     <row r="92" spans="1:30" ht="24" customHeight="1">
       <c r="A92" s="9" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
@@ -3713,10 +3701,10 @@
         <v>44</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="24" customHeight="1">
@@ -5515,20 +5503,18 @@
       </c>
     </row>
     <row r="39" spans="1:31" ht="24" customHeight="1">
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="11"/>
+      <c r="AA39" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="AA39" s="6" t="s">
+      <c r="AB39" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="AB39" s="6" t="s">
+      <c r="AC39" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="AC39" s="6" t="s">
+      <c r="AD39" s="6" t="s">
         <v>314</v>
-      </c>
-      <c r="AD39" s="6" t="s">
-        <v>315</v>
       </c>
       <c r="AE39" s="6" t="s">
         <v>67</v>
@@ -5572,20 +5558,20 @@
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>316</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -5596,10 +5582,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>320</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
@@ -5607,7 +5593,7 @@
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -5618,10 +5604,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>323</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
@@ -5634,10 +5620,10 @@
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>325</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
@@ -5645,22 +5631,22 @@
         <v>61</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>327</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="AB15" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="AB15" s="6" t="s">
+      <c r="AC15" s="6" t="s">
         <v>330</v>
-      </c>
-      <c r="AC15" s="6" t="s">
-        <v>331</v>
       </c>
       <c r="AD15" s="6" t="s">
         <v>67</v>
@@ -5668,20 +5654,20 @@
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>332</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>238</v>
@@ -5692,36 +5678,36 @@
         <v>61</v>
       </c>
       <c r="B22" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>336</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="AA23" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="AB23" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="AA23" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="AB23" s="6" t="s">
+      <c r="AC23" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="AC23" s="6" t="s">
+      <c r="AD23" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="AD23" s="6" t="s">
+      <c r="AE23" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="AE23" s="6" t="s">
+      <c r="AF23" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="AF23" s="6" t="s">
+      <c r="AG23" s="6" t="s">
         <v>343</v>
-      </c>
-      <c r="AG23" s="6" t="s">
-        <v>344</v>
       </c>
       <c r="AH23" s="6" t="s">
         <v>67</v>
@@ -5729,10 +5715,10 @@
     </row>
     <row r="25" spans="1:34" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>345</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="26" spans="1:34" ht="24" customHeight="1">
@@ -5740,10 +5726,10 @@
         <v>197</v>
       </c>
       <c r="B26" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>347</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="24" customHeight="1">
@@ -5751,20 +5737,20 @@
     </row>
     <row r="30" spans="1:34" ht="24" customHeight="1">
       <c r="A30" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>349</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="31" spans="1:34" ht="24" customHeight="1">
       <c r="B31" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="33" spans="1:34" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>141</v>
@@ -5775,19 +5761,19 @@
         <v>61</v>
       </c>
       <c r="B34" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>353</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="35" spans="1:34" ht="24" customHeight="1">
       <c r="B35" s="11"/>
       <c r="AA35" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB35" s="6" t="s">
         <v>355</v>
-      </c>
-      <c r="AB35" s="6" t="s">
-        <v>356</v>
       </c>
       <c r="AC35" s="6" t="s">
         <v>67</v>
@@ -5795,7 +5781,7 @@
     </row>
     <row r="37" spans="1:34" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>238</v>
@@ -5806,34 +5792,34 @@
         <v>61</v>
       </c>
       <c r="B38" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>358</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="39" spans="1:34" ht="24" customHeight="1">
       <c r="B39" s="11"/>
       <c r="AA39" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="AB39" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="AB39" s="6" t="s">
+      <c r="AC39" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="AC39" s="6" t="s">
+      <c r="AD39" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="AD39" s="6" t="s">
+      <c r="AE39" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="AE39" s="6" t="s">
+      <c r="AF39" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="AF39" s="6" t="s">
+      <c r="AG39" s="6" t="s">
         <v>343</v>
-      </c>
-      <c r="AG39" s="6" t="s">
-        <v>344</v>
       </c>
       <c r="AH39" s="6" t="s">
         <v>67</v>
@@ -5841,10 +5827,10 @@
     </row>
     <row r="41" spans="1:34" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="42" spans="1:34" ht="24" customHeight="1">
@@ -5852,10 +5838,10 @@
         <v>197</v>
       </c>
       <c r="B42" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>361</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="43" spans="1:34" ht="24" customHeight="1">
@@ -5863,23 +5849,23 @@
     </row>
     <row r="46" spans="1:34" ht="24" customHeight="1">
       <c r="A46" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="B46" s="12" t="s">
         <v>363</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="47" spans="1:34" ht="24" customHeight="1">
       <c r="B47" s="13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>366</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
@@ -5887,22 +5873,22 @@
         <v>61</v>
       </c>
       <c r="B50" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>368</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="AB51" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC51" s="6" t="s">
         <v>370</v>
-      </c>
-      <c r="AB51" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="AC51" s="6" t="s">
-        <v>372</v>
       </c>
       <c r="AD51" s="6" t="s">
         <v>67</v>
@@ -5910,10 +5896,10 @@
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
@@ -5921,10 +5907,10 @@
         <v>197</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
@@ -5932,23 +5918,23 @@
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="B59" s="13" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
@@ -5956,10 +5942,10 @@
         <v>44</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
@@ -6012,20 +5998,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -6036,10 +6022,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -6047,7 +6033,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -6058,10 +6044,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -6074,20 +6060,20 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>141</v>
@@ -6098,29 +6084,29 @@
         <v>61</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="24" customHeight="1">
@@ -6128,23 +6114,23 @@
         <v>44</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="25" spans="1:28" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="24" customHeight="1">
@@ -6152,10 +6138,10 @@
         <v>142</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="24" customHeight="1">
@@ -6163,23 +6149,23 @@
     </row>
     <row r="30" spans="1:28" ht="24" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="31" spans="1:28" ht="24" customHeight="1">
       <c r="B31" s="13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
@@ -6187,10 +6173,10 @@
         <v>197</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -6198,10 +6184,10 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -6209,10 +6195,10 @@
         <v>142</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
@@ -6222,10 +6208,10 @@
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
@@ -6233,10 +6219,10 @@
         <v>121</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -6244,7 +6230,7 @@
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>43</v>
@@ -6255,23 +6241,23 @@
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="B47" s="11" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="49" spans="1:31" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="24" customHeight="1">
@@ -6279,10 +6265,10 @@
         <v>61</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="51" spans="1:31" ht="24" customHeight="1">
@@ -6293,16 +6279,16 @@
     <row r="52" spans="1:31" ht="24" customHeight="1">
       <c r="B52" s="11"/>
       <c r="AA52" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="AB52" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="AC52" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="AB52" s="6" t="s">
+      <c r="AD52" s="6" t="s">
         <v>433</v>
-      </c>
-      <c r="AC52" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="AD52" s="6" t="s">
-        <v>435</v>
       </c>
       <c r="AE52" s="6" t="s">
         <v>67</v>
@@ -6310,10 +6296,10 @@
     </row>
     <row r="54" spans="1:31" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="55" spans="1:31" ht="24" customHeight="1">
@@ -6321,10 +6307,10 @@
         <v>44</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="24" customHeight="1">
@@ -6332,20 +6318,20 @@
     </row>
     <row r="59" spans="1:31" ht="24" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="60" spans="1:31" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>43</v>
@@ -6356,23 +6342,23 @@
         <v>44</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="24" customHeight="1">
       <c r="B64" s="11" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
@@ -6380,16 +6366,14 @@
         <v>142</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
-      <c r="B68" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="B68" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="7">
@@ -6436,20 +6420,20 @@
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -6460,10 +6444,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
@@ -6471,7 +6455,7 @@
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -6482,10 +6466,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="24" customHeight="1">
@@ -6498,7 +6482,7 @@
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>238</v>
@@ -6509,43 +6493,43 @@
         <v>61</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
-        <v>462</v>
+        <v>328</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="24" customHeight="1">
@@ -6553,30 +6537,30 @@
         <v>61</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="AA23" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="AD23" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="AA23" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="AB23" s="6" t="s">
+      <c r="AE23" s="6" t="s">
         <v>473</v>
-      </c>
-      <c r="AC23" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="AD23" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="AE23" s="6" t="s">
-        <v>476</v>
       </c>
       <c r="AF23" s="6" t="s">
         <v>67</v>
@@ -6584,10 +6568,10 @@
     </row>
     <row r="25" spans="1:32" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="24" customHeight="1">
@@ -6595,21 +6579,21 @@
         <v>61</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="24" customHeight="1">
       <c r="B27" s="11" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="AA27" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="AC27" s="6" t="s">
         <v>67</v>
@@ -6617,10 +6601,10 @@
     </row>
     <row r="29" spans="1:32" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="24" customHeight="1">
@@ -6628,24 +6612,24 @@
         <v>61</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="24" customHeight="1">
       <c r="B31" s="11" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AA31" s="6" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="AD31" s="6" t="s">
         <v>67</v>
@@ -6653,20 +6637,20 @@
     </row>
     <row r="34" spans="1:30" ht="24" customHeight="1">
       <c r="A34" s="12" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="24" customHeight="1">
       <c r="B35" s="13" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="37" spans="1:30" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>141</v>
@@ -6677,24 +6661,24 @@
         <v>61</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="24" customHeight="1">
       <c r="B39" s="11" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="AA39" s="6" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="AD39" s="6" t="s">
         <v>67</v>
@@ -6702,10 +6686,10 @@
     </row>
     <row r="41" spans="1:30" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="24" customHeight="1">
@@ -6713,10 +6697,10 @@
         <v>197</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="24" customHeight="1">
@@ -6724,10 +6708,10 @@
     </row>
     <row r="45" spans="1:30" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="46" spans="1:30" ht="24" customHeight="1">
@@ -6735,23 +6719,23 @@
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="24" customHeight="1">
       <c r="B47" s="11" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
@@ -6759,23 +6743,23 @@
         <v>44</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="B51" s="11" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
@@ -6783,10 +6767,10 @@
         <v>142</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -6794,23 +6778,23 @@
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="B59" s="13" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
@@ -6818,10 +6802,10 @@
         <v>142</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
@@ -6831,10 +6815,10 @@
     </row>
     <row r="65" spans="1:32" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="24" customHeight="1">
@@ -6842,10 +6826,10 @@
         <v>142</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="67" spans="1:32" ht="24" customHeight="1">
@@ -6853,23 +6837,23 @@
     </row>
     <row r="70" spans="1:32" ht="24" customHeight="1">
       <c r="A70" s="12" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="71" spans="1:32" ht="24" customHeight="1">
       <c r="B71" s="13" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="73" spans="1:32" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="74" spans="1:32" ht="24" customHeight="1">
@@ -6877,30 +6861,30 @@
         <v>61</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="24" customHeight="1">
       <c r="B75" s="11" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="AA75" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="AB75" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="AC75" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="AD75" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="AB75" s="6" t="s">
+      <c r="AE75" s="6" t="s">
         <v>473</v>
-      </c>
-      <c r="AC75" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="AD75" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="AE75" s="6" t="s">
-        <v>476</v>
       </c>
       <c r="AF75" s="6" t="s">
         <v>67</v>
@@ -6908,10 +6892,10 @@
     </row>
     <row r="77" spans="1:32" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="78" spans="1:32" ht="24" customHeight="1">
@@ -6919,21 +6903,21 @@
         <v>61</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="79" spans="1:32" ht="24" customHeight="1">
       <c r="B79" s="11" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="AA79" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="AB79" s="6" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="AC79" s="6" t="s">
         <v>67</v>
@@ -6941,10 +6925,10 @@
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="24" customHeight="1">
@@ -6952,24 +6936,24 @@
         <v>61</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="83" spans="1:30" ht="24" customHeight="1">
       <c r="B83" s="11" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AA83" s="6" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AB83" s="6" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="AC83" s="6" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="AD83" s="6" t="s">
         <v>67</v>
@@ -6977,20 +6961,20 @@
     </row>
     <row r="86" spans="1:30" ht="24" customHeight="1">
       <c r="A86" s="12" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="87" spans="1:30" ht="24" customHeight="1">
       <c r="B87" s="13" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B89" s="9" t="s">
         <v>141</v>
@@ -7001,24 +6985,24 @@
         <v>61</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="91" spans="1:30" ht="24" customHeight="1">
       <c r="B91" s="11" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="AA91" s="6" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="AB91" s="6" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="AC91" s="6" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="AD91" s="6" t="s">
         <v>67</v>
@@ -7026,10 +7010,10 @@
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="24" customHeight="1">
@@ -7037,10 +7021,10 @@
         <v>197</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="24" customHeight="1">
@@ -7050,10 +7034,10 @@
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -7061,10 +7045,10 @@
         <v>44</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
@@ -7072,10 +7056,10 @@
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="A101" s="9" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
@@ -7083,10 +7067,10 @@
         <v>197</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -7096,10 +7080,10 @@
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
@@ -7107,10 +7091,10 @@
         <v>142</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
@@ -7118,20 +7102,20 @@
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="12" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="B111" s="13" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="113" spans="1:28" ht="24" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B113" s="9" t="s">
         <v>141</v>
@@ -7142,18 +7126,18 @@
         <v>61</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="115" spans="1:28" ht="24" customHeight="1">
       <c r="B115" s="11" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="AA115" s="6" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="AB115" s="6" t="s">
         <v>67</v>
@@ -7161,10 +7145,10 @@
     </row>
     <row r="117" spans="1:28" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="118" spans="1:28" ht="24" customHeight="1">
@@ -7172,10 +7156,10 @@
         <v>197</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="119" spans="1:28" ht="24" customHeight="1">
@@ -7183,10 +7167,10 @@
     </row>
     <row r="121" spans="1:28" ht="24" customHeight="1">
       <c r="A121" s="9" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="122" spans="1:28" ht="24" customHeight="1">
@@ -7194,23 +7178,23 @@
         <v>44</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="123" spans="1:28" ht="24" customHeight="1">
       <c r="B123" s="11" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="125" spans="1:28" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="126" spans="1:28" ht="24" customHeight="1">
@@ -7218,10 +7202,10 @@
         <v>44</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="127" spans="1:28" ht="24" customHeight="1">
@@ -7304,20 +7288,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -7328,10 +7312,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7339,7 +7323,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -7350,10 +7334,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -7363,28 +7347,28 @@
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="24" customHeight="1">
@@ -7392,10 +7376,10 @@
         <v>142</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="24" customHeight="1">
@@ -7403,20 +7387,20 @@
     </row>
     <row r="22" spans="1:35" ht="24" customHeight="1">
       <c r="A22" s="12" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="24" customHeight="1">
       <c r="B23" s="13" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>141</v>
@@ -7427,39 +7411,39 @@
         <v>61</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="24" customHeight="1">
       <c r="B27" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="AA27" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="AB27" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="AC27" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="AD27" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="AA27" s="6" t="s">
+      <c r="AE27" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="AB27" s="6" t="s">
-        <v>600</v>
-      </c>
-      <c r="AC27" s="6" t="s">
+      <c r="AF27" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="AD27" s="6" t="s">
+      <c r="AG27" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="AE27" s="6" t="s">
+      <c r="AH27" s="6" t="s">
         <v>604</v>
-      </c>
-      <c r="AF27" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="AG27" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="AH27" s="6" t="s">
-        <v>607</v>
       </c>
       <c r="AI27" s="6" t="s">
         <v>67</v>
@@ -7467,10 +7451,10 @@
     </row>
     <row r="29" spans="1:35" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="24" customHeight="1">
@@ -7478,10 +7462,10 @@
         <v>121</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="31" spans="1:35" ht="24" customHeight="1">
@@ -7489,10 +7473,10 @@
     </row>
     <row r="33" spans="1:35" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="34" spans="1:35" ht="24" customHeight="1">
@@ -7500,10 +7484,10 @@
         <v>197</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="35" spans="1:35" ht="24" customHeight="1">
@@ -7511,10 +7495,10 @@
     </row>
     <row r="37" spans="1:35" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="38" spans="1:35" ht="24" customHeight="1">
@@ -7522,33 +7506,33 @@
         <v>44</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="39" spans="1:35" ht="24" customHeight="1">
       <c r="B39" s="11" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="42" spans="1:35" ht="24" customHeight="1">
       <c r="A42" s="12" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="43" spans="1:35" ht="24" customHeight="1">
       <c r="B43" s="13" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="45" spans="1:35" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>141</v>
@@ -7559,39 +7543,39 @@
         <v>61</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="47" spans="1:35" ht="24" customHeight="1">
       <c r="B47" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="AA47" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="AB47" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="AC47" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="AD47" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="AA47" s="6" t="s">
+      <c r="AE47" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="AB47" s="6" t="s">
-        <v>600</v>
-      </c>
-      <c r="AC47" s="6" t="s">
+      <c r="AF47" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="AD47" s="6" t="s">
+      <c r="AG47" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="AE47" s="6" t="s">
+      <c r="AH47" s="6" t="s">
         <v>604</v>
-      </c>
-      <c r="AF47" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="AG47" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="AH47" s="6" t="s">
-        <v>607</v>
       </c>
       <c r="AI47" s="6" t="s">
         <v>67</v>
@@ -7599,10 +7583,10 @@
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
@@ -7610,10 +7594,10 @@
         <v>121</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
@@ -7621,10 +7605,10 @@
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
@@ -7632,10 +7616,10 @@
         <v>197</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -7643,10 +7627,10 @@
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
@@ -7654,36 +7638,36 @@
         <v>44</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="B59" s="11" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="B63" s="13" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="66" spans="1:30" ht="24" customHeight="1">
@@ -7691,24 +7675,24 @@
         <v>61</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="B67" s="11" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="AA67" s="6" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="AB67" s="6" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="AC67" s="6" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AD67" s="6" t="s">
         <v>67</v>
@@ -7716,10 +7700,10 @@
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="A69" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="70" spans="1:30" ht="24" customHeight="1">
@@ -7727,23 +7711,23 @@
         <v>44</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="B71" s="11" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="74" spans="1:30" ht="24" customHeight="1">
@@ -7751,10 +7735,10 @@
         <v>142</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
@@ -7762,10 +7746,10 @@
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
@@ -7773,10 +7757,10 @@
         <v>142</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
@@ -7784,20 +7768,20 @@
     </row>
     <row r="82" spans="1:33" ht="24" customHeight="1">
       <c r="A82" s="12" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="83" spans="1:33" ht="24" customHeight="1">
       <c r="B83" s="13" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="85" spans="1:33" ht="24" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B85" s="9" t="s">
         <v>141</v>
@@ -7808,31 +7792,31 @@
         <v>61</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="87" spans="1:33" ht="24" customHeight="1">
       <c r="B87" s="11"/>
       <c r="AA87" s="6" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="AB87" s="6" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="AC87" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="AD87" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="AE87" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="AD87" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="AE87" s="6" t="s">
-        <v>606</v>
-      </c>
       <c r="AF87" s="6" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="AG87" s="6" t="s">
         <v>67</v>
@@ -7840,10 +7824,10 @@
     </row>
     <row r="89" spans="1:33" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="90" spans="1:33" ht="24" customHeight="1">
@@ -7851,10 +7835,10 @@
         <v>197</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="91" spans="1:33" ht="24" customHeight="1">
@@ -7862,10 +7846,10 @@
     </row>
     <row r="93" spans="1:33" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="94" spans="1:33" ht="24" customHeight="1">
@@ -7873,10 +7857,10 @@
         <v>142</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="95" spans="1:33" ht="24" customHeight="1">
@@ -7884,10 +7868,10 @@
     </row>
     <row r="97" spans="1:33" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="98" spans="1:33" ht="24" customHeight="1">
@@ -7895,33 +7879,33 @@
         <v>44</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="99" spans="1:33" ht="24" customHeight="1">
       <c r="B99" s="11" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="102" spans="1:33" ht="24" customHeight="1">
       <c r="A102" s="12" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="103" spans="1:33" ht="24" customHeight="1">
       <c r="B103" s="13" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="105" spans="1:33" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>141</v>
@@ -7932,31 +7916,31 @@
         <v>61</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="107" spans="1:33" ht="24" customHeight="1">
       <c r="B107" s="11"/>
       <c r="AA107" s="6" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="AB107" s="6" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="AC107" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="AD107" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="AE107" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="AD107" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="AE107" s="6" t="s">
-        <v>606</v>
-      </c>
       <c r="AF107" s="6" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="AG107" s="6" t="s">
         <v>67</v>
@@ -7964,10 +7948,10 @@
     </row>
     <row r="109" spans="1:33" ht="24" customHeight="1">
       <c r="A109" s="9" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="110" spans="1:33" ht="24" customHeight="1">
@@ -7975,10 +7959,10 @@
         <v>197</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="111" spans="1:33" ht="24" customHeight="1">
@@ -7986,10 +7970,10 @@
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
@@ -7997,10 +7981,10 @@
         <v>44</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -8008,10 +7992,10 @@
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
@@ -8019,16 +8003,14 @@
         <v>44</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
-      <c r="B119" s="11" t="s">
-        <v>635</v>
-      </c>
+      <c r="B119" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="15">
@@ -8100,20 +8082,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -8124,10 +8106,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -8135,7 +8117,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -8146,10 +8128,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -8162,20 +8144,20 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>238</v>
@@ -8186,36 +8168,36 @@
         <v>61</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="AA19" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="AB19" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="AC19" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="AD19" s="6" t="s">
         <v>706</v>
       </c>
-      <c r="AA19" s="6" t="s">
+      <c r="AE19" s="6" t="s">
         <v>707</v>
       </c>
-      <c r="AB19" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="AC19" s="6" t="s">
+      <c r="AF19" s="6" t="s">
         <v>708</v>
       </c>
-      <c r="AD19" s="6" t="s">
+      <c r="AG19" s="6" t="s">
         <v>709</v>
-      </c>
-      <c r="AE19" s="6" t="s">
-        <v>710</v>
-      </c>
-      <c r="AF19" s="6" t="s">
-        <v>711</v>
-      </c>
-      <c r="AG19" s="6" t="s">
-        <v>712</v>
       </c>
       <c r="AH19" s="6" t="s">
         <v>67</v>
@@ -8223,10 +8205,10 @@
     </row>
     <row r="21" spans="1:34" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1">
@@ -8234,10 +8216,10 @@
         <v>142</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
@@ -8245,20 +8227,20 @@
     </row>
     <row r="26" spans="1:34" ht="24" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="24" customHeight="1">
       <c r="B27" s="13" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>54</v>
@@ -8269,10 +8251,10 @@
         <v>44</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="31" spans="1:34" ht="24" customHeight="1">
@@ -8285,10 +8267,10 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
@@ -8296,21 +8278,21 @@
         <v>61</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="B36" s="11" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="AA36" s="6" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="AC36" s="6" t="s">
         <v>67</v>
@@ -8318,10 +8300,10 @@
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
@@ -8329,10 +8311,10 @@
         <v>197</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
@@ -8342,10 +8324,10 @@
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
@@ -8353,10 +8335,10 @@
         <v>44</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -8365,9 +8347,7 @@
       </c>
     </row>
     <row r="45" spans="1:29" ht="178" customHeight="1">
-      <c r="B45" s="11" t="s">
-        <v>737</v>
-      </c>
+      <c r="B45" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="4">

--- a/cmip6/models/ipsl-cm6a-lr/cmip6_ipsl_ipsl-cm6a-lr_ocean.xlsx
+++ b/cmip6/models/ipsl-cm6a-lr/cmip6_ipsl_ipsl-cm6a-lr_ocean.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="827">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -199,10 +199,10 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
-    <t>The ocean and sea-ice component is based on NEMOv3.2 (Nucleus for European Modelling of the Ocean, Madec, 2008), which includes OPA for the dynamics of the ocean, PISCES for ocean biochemistry, and LIM for sea-ice dynamics and thermodynamics. The configuration is ORCA2 (Madec and Imbard, 1996) which is a tri-polar global grid and its associated physics. South of 40°N, the grid is an isotropic Mercator with a nominal resolution of 2°. A latitudinal grid refinement of 1/2° is used in the tropics. North of 40°N, the grid is no more Mercator and quasi-isotropic, the North Pole singularity being mapped onto a line between points in Canada and Siberia. In the vertical, 31 depth levels are used (from 10m thick near the surface to 500m thick at 5000m)._x000D_
-_x000D_
-NEMOv3.2 uses a partial step formulation (Barnier et al, 2006), which ensures a better representation of bottom bathymetry and thus stream flow and friction at the bottom of the ocean. Advection of temperature and salinity is done using a total variance dissipation scheme (Lévy et al, 2001; Cravatte et al, 2007). In the momentum equation, an energy and enstrophy conserving scheme is used (Arakawa and Lamb, 1981; Le Sommer et al, 2009). The mixed layer dynamics is parameterized using the Turbulent Kinetic Energy (TKE) closure scheme of Blanke and Delecluse (1993) improved by Madec (2008). The improvements include a double diffusion process (Merryfield et al, 1999), Langmuir cells (Axell, 2002) and the contribution of surface wave breaking (Mellor and Blumberg, 2004; Burchard and Rennau, 2008). A parametrization of bottom intensified tidal-driven mixing similar to Simmons et al (2004) is used in combination with a specific tidal mixing parametrization in the Indonesian area (Koch-Larrouy et al, 2007, 2010). NEMOv3.2 also includes prognostic interaction between incoming shortwave radiation into the ocean and the phytoplankton (Lengaigne et al, 2009)._x000D_
-_x000D_
+    <t>The ocean and sea-ice component is based on NEMOv3.2 (Nucleus for European Modelling of the Ocean, Madec, 2008), which includes OPA for the dynamics of the ocean, PISCES for ocean biochemistry, and LIM for sea-ice dynamics and thermodynamics. The configuration is ORCA2 (Madec and Imbard, 1996) which is a tri-polar global grid and its associated physics. South of 40°N, the grid is an isotropic Mercator with a nominal resolution of 2°. A latitudinal grid refinement of 1/2° is used in the tropics. North of 40°N, the grid is no more Mercator and quasi-isotropic, the North Pole singularity being mapped onto a line between points in Canada and Siberia. In the vertical, 31 depth levels are used (from 10m thick near the surface to 500m thick at 5000m)._x005F_x000D_
+_x005F_x000D_
+NEMOv3.2 uses a partial step formulation (Barnier et al, 2006), which ensures a better representation of bottom bathymetry and thus stream flow and friction at the bottom of the ocean. Advection of temperature and salinity is done using a total variance dissipation scheme (Lévy et al, 2001; Cravatte et al, 2007). In the momentum equation, an energy and enstrophy conserving scheme is used (Arakawa and Lamb, 1981; Le Sommer et al, 2009). The mixed layer dynamics is parameterized using the Turbulent Kinetic Energy (TKE) closure scheme of Blanke and Delecluse (1993) improved by Madec (2008). The improvements include a double diffusion process (Merryfield et al, 1999), Langmuir cells (Axell, 2002) and the contribution of surface wave breaking (Mellor and Blumberg, 2004; Burchard and Rennau, 2008). A parametrization of bottom intensified tidal-driven mixing similar to Simmons et al (2004) is used in combination with a specific tidal mixing parametrization in the Indonesian area (Koch-Larrouy et al, 2007, 2010). NEMOv3.2 also includes prognostic interaction between incoming shortwave radiation into the ocean and the phytoplankton (Lengaigne et al, 2009)._x005F_x000D_
+_x005F_x000D_
 The horizontal eddy viscosity coefficient (ahm) value is 4.104 m2.s−1 and the lateral eddy diffusivity coefficient (aht) value is 103 m2.s−1. ahm reduces to aht in the tropics, except along western boundaries. The tracer diffusion is along isoneutral surfaces. A Gent and Mcwilliams (1990) term is applied in the advective formulation. Its coefficient is calculated from the local growth rate of baroclinic instability. It decreases in the 20◦S-20◦N band, and vanishes at the Equator. At the ocean floor, there is a linear bottom friction with a coefficient of 4.10−4, and a background bottom turbulent kinetic energy of 2.5 10−3 m2.s−2. The model has a Beckmann and Döscher (1997) diffusive bottom boundary layer scheme with a value of 104 m2.s−1. A spatially varying geothermal flux is applied at the bottom of the ocean (Emile-Geay and Madec, 2009), with a global mean value of 86.4 mW.m−2.</t>
   </si>
   <si>
@@ -224,10 +224,10 @@
     <t>OGCM</t>
   </si>
   <si>
-    <t>Slab ocean</t>
-  </si>
-  <si>
-    <t>Mixed layer ocean</t>
+    <t>slab ocean</t>
+  </si>
+  <si>
+    <t>mixed layer ocean</t>
   </si>
   <si>
     <t>Other: document in cell to the right</t>
@@ -284,7 +284,7 @@
     <t>W-velocity</t>
   </si>
   <si>
-    <t>SSH</t>
+    <t>SSH: Sea Surface Height</t>
   </si>
   <si>
     <t>1.2.1</t>
@@ -443,7 +443,7 @@
     <t>6000 years BP</t>
   </si>
   <si>
-    <t>LGM</t>
+    <t>LGM: Last Glacial Maximum</t>
   </si>
   <si>
     <t>Pliocene</t>
@@ -864,16 +864,16 @@
     <t>S-coordinate</t>
   </si>
   <si>
-    <t>Isopycnic - sigma 0</t>
-  </si>
-  <si>
-    <t>Isopycnic - sigma 2</t>
-  </si>
-  <si>
-    <t>Isopycnic - sigma 4</t>
-  </si>
-  <si>
-    <t>Isopycnic - other</t>
+    <t>Isopycnic - sigma 0: Density referenced to the surface</t>
+  </si>
+  <si>
+    <t>Isopycnic - sigma 2: Density referenced to 2000 m</t>
+  </si>
+  <si>
+    <t>Isopycnic - sigma 4: Density referenced to 4000 m</t>
+  </si>
+  <si>
+    <t>Isopycnic - other: Other density-based coordinate</t>
   </si>
   <si>
     <t>Hybrid / Z+S</t>
@@ -1017,133 +1017,136 @@
     <t>cmip6.ocean.timestepping_framework.diurnal_cycle</t>
   </si>
   <si>
+    <t>None: No diurnal cycle in ocean</t>
+  </si>
+  <si>
+    <t>Via coupling: Diurnal cycle via coupling frequency</t>
+  </si>
+  <si>
+    <t>Specific treatment: Specific treament</t>
+  </si>
+  <si>
+    <t>3.2.1</t>
+  </si>
+  <si>
+    <t>Timestepping Framework --&gt; Tracers</t>
+  </si>
+  <si>
+    <t>Properties of tracers time stepping in ocean</t>
+  </si>
+  <si>
+    <t>3.2.1.1 *</t>
+  </si>
+  <si>
+    <t>Tracers time stepping scheme</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.timestepping_framework.tracers.scheme</t>
+  </si>
+  <si>
+    <t>Leap-frog + Asselin filter: Leap-frog scheme with Asselin filter</t>
+  </si>
+  <si>
+    <t>Leap-frog + Periodic Euler: Leap-frog scheme with Periodic Euler</t>
+  </si>
+  <si>
+    <t>Predictor-corrector: Predictor-corrector scheme</t>
+  </si>
+  <si>
+    <t>Runge-Kutta 2: Runge-Kutta 2 scheme</t>
+  </si>
+  <si>
+    <t>AM3-LF: AM3-LF such as used in ROMS</t>
+  </si>
+  <si>
+    <t>Forward-backward: Forward-backward scheme</t>
+  </si>
+  <si>
+    <t>Forward operator: Forward operator scheme</t>
+  </si>
+  <si>
+    <t>3.2.1.2 *</t>
+  </si>
+  <si>
+    <t>Time Step</t>
+  </si>
+  <si>
+    <t>Tracers time step (in seconds)</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.timestepping_framework.tracers.time_step</t>
+  </si>
+  <si>
+    <t>3.3.1</t>
+  </si>
+  <si>
+    <t>Timestepping Framework --&gt; Baroclinic Dynamics</t>
+  </si>
+  <si>
+    <t>Baroclinic dynamics in ocean</t>
+  </si>
+  <si>
+    <t>3.3.1.1 *</t>
+  </si>
+  <si>
+    <t>Baroclinic dynamics type</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.timestepping_framework.baroclinic_dynamics.type</t>
+  </si>
+  <si>
+    <t>Preconditioned conjugate gradient</t>
+  </si>
+  <si>
+    <t>Sub cyling: Sub cycling relative to tracers</t>
+  </si>
+  <si>
+    <t>3.3.1.2 *</t>
+  </si>
+  <si>
+    <t>Baroclinic dynamics scheme</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.timestepping_framework.baroclinic_dynamics.scheme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1.3 </t>
+  </si>
+  <si>
+    <t>Baroclinic time step (in seconds)</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.timestepping_framework.baroclinic_dynamics.time_step</t>
+  </si>
+  <si>
+    <t>3.4.1</t>
+  </si>
+  <si>
+    <t>Timestepping Framework --&gt; Barotropic</t>
+  </si>
+  <si>
+    <t>Barotropic time stepping in ocean</t>
+  </si>
+  <si>
+    <t>3.4.1.1 *</t>
+  </si>
+  <si>
+    <t>Splitting</t>
+  </si>
+  <si>
+    <t>Time splitting method</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.timestepping_framework.barotropic.splitting</t>
+  </si>
+  <si>
     <t>None</t>
   </si>
   <si>
-    <t>Via coupling</t>
-  </si>
-  <si>
-    <t>Specific treatment</t>
-  </si>
-  <si>
-    <t>3.2.1</t>
-  </si>
-  <si>
-    <t>Timestepping Framework --&gt; Tracers</t>
-  </si>
-  <si>
-    <t>Properties of tracers time stepping in ocean</t>
-  </si>
-  <si>
-    <t>3.2.1.1 *</t>
-  </si>
-  <si>
-    <t>Tracers time stepping scheme</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.timestepping_framework.tracers.scheme</t>
-  </si>
-  <si>
-    <t>Leap-frog + Asselin filter</t>
-  </si>
-  <si>
-    <t>Leap-frog + Periodic Euler</t>
-  </si>
-  <si>
-    <t>Predictor-corrector</t>
-  </si>
-  <si>
-    <t>Runge-Kutta 2</t>
-  </si>
-  <si>
-    <t>AM3-LF</t>
-  </si>
-  <si>
-    <t>Forward-backward</t>
-  </si>
-  <si>
-    <t>Forward operator</t>
-  </si>
-  <si>
-    <t>3.2.1.2 *</t>
-  </si>
-  <si>
-    <t>Time Step</t>
-  </si>
-  <si>
-    <t>Tracers time step (in seconds)</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.timestepping_framework.tracers.time_step</t>
-  </si>
-  <si>
-    <t>3.3.1</t>
-  </si>
-  <si>
-    <t>Timestepping Framework --&gt; Baroclinic Dynamics</t>
-  </si>
-  <si>
-    <t>Baroclinic dynamics in ocean</t>
-  </si>
-  <si>
-    <t>3.3.1.1 *</t>
-  </si>
-  <si>
-    <t>Baroclinic dynamics type</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.timestepping_framework.baroclinic_dynamics.type</t>
-  </si>
-  <si>
-    <t>Preconditioned conjugate gradient</t>
-  </si>
-  <si>
-    <t>Sub cyling</t>
-  </si>
-  <si>
-    <t>3.3.1.2 *</t>
-  </si>
-  <si>
-    <t>Baroclinic dynamics scheme</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.timestepping_framework.baroclinic_dynamics.scheme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1.3 </t>
-  </si>
-  <si>
-    <t>Baroclinic time step (in seconds)</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.timestepping_framework.baroclinic_dynamics.time_step</t>
-  </si>
-  <si>
-    <t>3.4.1</t>
-  </si>
-  <si>
-    <t>Timestepping Framework --&gt; Barotropic</t>
-  </si>
-  <si>
-    <t>Barotropic time stepping in ocean</t>
-  </si>
-  <si>
-    <t>3.4.1.1 *</t>
-  </si>
-  <si>
-    <t>Splitting</t>
-  </si>
-  <si>
-    <t>Time splitting method</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.timestepping_framework.barotropic.splitting</t>
-  </si>
-  <si>
-    <t>Split explicit</t>
-  </si>
-  <si>
-    <t>Implicit</t>
+    <t>split explicit</t>
+  </si>
+  <si>
+    <t>implicit</t>
   </si>
   <si>
     <t xml:space="preserve">3.4.1.2 </t>
@@ -1413,10 +1416,13 @@
     <t>cmip6.ocean.lateral_physics.scheme</t>
   </si>
   <si>
-    <t>Eddy active</t>
-  </si>
-  <si>
-    <t>Eddy admitting</t>
+    <t>None: No transient eddies in ocean</t>
+  </si>
+  <si>
+    <t>Eddy active: Full resolution of eddies</t>
+  </si>
+  <si>
+    <t>Eddy admitting: Some eddy activity permitted by resolution</t>
   </si>
   <si>
     <t>5.1.2</t>
@@ -1464,10 +1470,10 @@
     <t>cmip6.ocean.lateral_physics.momentum.operator.order</t>
   </si>
   <si>
-    <t>Harmonic</t>
-  </si>
-  <si>
-    <t>Bi-harmonic</t>
+    <t>Harmonic: Second order</t>
+  </si>
+  <si>
+    <t>Bi-harmonic: Fourth order</t>
   </si>
   <si>
     <t>5.1.2.3 *</t>
@@ -1482,10 +1488,10 @@
     <t>cmip6.ocean.lateral_physics.momentum.operator.discretisation</t>
   </si>
   <si>
-    <t>Second order</t>
-  </si>
-  <si>
-    <t>Higher order</t>
+    <t>Second order: Second order</t>
+  </si>
+  <si>
+    <t>Higher order: Higher order</t>
   </si>
   <si>
     <t>Flux limiter</t>
@@ -1713,7 +1719,7 @@
     <t>cmip6.ocean.lateral_physics.tracers.eddy_induced_velocity.type</t>
   </si>
   <si>
-    <t>GM</t>
+    <t>GM: Gent &amp; McWilliams</t>
   </si>
   <si>
     <t xml:space="preserve">5.2.4.2 </t>
@@ -1782,8 +1788,8 @@
     <t>cmip6.ocean.vertical_physics.overview</t>
   </si>
   <si>
-    <t>[For Metafor gang: Tidal mixing answers not relevant (to review)]_x000D_
-Bottom intensified tidal mixing (Simmons al. 2004)_x000D_
+    <t>[For Metafor gang: Tidal mixing answers not relevant (to review)]_x005F_x000D_
+Bottom intensified tidal mixing (Simmons al. 2004)_x005F_x000D_
 Specific treatment of tidal mixing in Indonesians seas (Koch Larrouy et al. 2007)</t>
   </si>
   <si>
@@ -3158,20 +3164,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -3182,10 +3188,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3193,7 +3199,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -3204,10 +3210,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3220,10 +3226,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3231,10 +3237,10 @@
         <v>44</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3242,10 +3248,10 @@
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
@@ -3253,10 +3259,10 @@
         <v>44</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -3266,15 +3272,15 @@
     </row>
     <row r="20" spans="1:3" ht="178" customHeight="1">
       <c r="B20" s="11" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -3282,10 +3288,10 @@
         <v>44</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3298,10 +3304,10 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
@@ -3309,10 +3315,10 @@
         <v>44</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
@@ -3325,10 +3331,10 @@
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="24" customHeight="1">
@@ -3336,10 +3342,10 @@
         <v>44</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="24" customHeight="1">
@@ -3352,10 +3358,10 @@
     </row>
     <row r="37" spans="1:32" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="24" customHeight="1">
@@ -3363,10 +3369,10 @@
         <v>44</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="24" customHeight="1">
@@ -3376,25 +3382,25 @@
     </row>
     <row r="40" spans="1:32" ht="178" customHeight="1">
       <c r="B40" s="11" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="43" spans="1:32" ht="24" customHeight="1">
       <c r="A43" s="12" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="44" spans="1:32" ht="24" customHeight="1">
       <c r="B44" s="13" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>141</v>
@@ -3405,10 +3411,10 @@
         <v>61</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="48" spans="1:32" ht="24" customHeight="1">
@@ -3419,16 +3425,16 @@
         <v>93</v>
       </c>
       <c r="AB48" s="6" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="AC48" s="6" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="AD48" s="6" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="AE48" s="6" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="AF48" s="6" t="s">
         <v>67</v>
@@ -3436,20 +3442,20 @@
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="52" spans="1:30" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>141</v>
@@ -3460,24 +3466,24 @@
         <v>61</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
       <c r="B56" s="11" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="AA56" s="6" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="AB56" s="6" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="AC56" s="6" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="AD56" s="6" t="s">
         <v>67</v>
@@ -3485,20 +3491,20 @@
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="60" spans="1:30" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>238</v>
@@ -3509,24 +3515,24 @@
         <v>61</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="B64" s="11" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="AA64" s="6" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="AB64" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="AC64" s="6" t="s">
         <v>794</v>
-      </c>
-      <c r="AC64" s="6" t="s">
-        <v>792</v>
       </c>
       <c r="AD64" s="6" t="s">
         <v>67</v>
@@ -3534,10 +3540,10 @@
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
@@ -3545,10 +3551,10 @@
         <v>142</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
@@ -3558,10 +3564,10 @@
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
@@ -3569,10 +3575,10 @@
         <v>44</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
@@ -3585,10 +3591,10 @@
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
@@ -3596,10 +3602,10 @@
         <v>44</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
@@ -3612,23 +3618,23 @@
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
       <c r="A81" s="12" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="24" customHeight="1">
       <c r="B82" s="13" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row r="84" spans="1:30" ht="24" customHeight="1">
       <c r="A84" s="9" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="85" spans="1:30" ht="24" customHeight="1">
@@ -3636,19 +3642,19 @@
         <v>61</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="86" spans="1:30" ht="24" customHeight="1">
       <c r="B86" s="11"/>
       <c r="AA86" s="6" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="AB86" s="6" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="AC86" s="6" t="s">
         <v>67</v>
@@ -3656,10 +3662,10 @@
     </row>
     <row r="88" spans="1:30" ht="24" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
@@ -3667,22 +3673,22 @@
         <v>61</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="90" spans="1:30" ht="24" customHeight="1">
       <c r="B90" s="11"/>
       <c r="AA90" s="6" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="AB90" s="6" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="AC90" s="6" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="AD90" s="6" t="s">
         <v>67</v>
@@ -3690,10 +3696,10 @@
     </row>
     <row r="92" spans="1:30" ht="24" customHeight="1">
       <c r="A92" s="9" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
@@ -3701,10 +3707,10 @@
         <v>44</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="24" customHeight="1">
@@ -5882,13 +5888,13 @@
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AD51" s="6" t="s">
         <v>67</v>
@@ -5896,7 +5902,7 @@
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>345</v>
@@ -5907,10 +5913,10 @@
         <v>197</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
@@ -5918,23 +5924,23 @@
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="B59" s="13" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
@@ -5942,10 +5948,10 @@
         <v>44</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
@@ -5998,20 +6004,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -6022,10 +6028,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -6033,7 +6039,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -6044,10 +6050,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -6060,20 +6066,20 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>141</v>
@@ -6084,29 +6090,29 @@
         <v>61</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AA19" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="AB19" s="6" t="s">
         <v>397</v>
-      </c>
-      <c r="AB19" s="6" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="24" customHeight="1">
@@ -6114,23 +6120,23 @@
         <v>44</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="25" spans="1:28" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="24" customHeight="1">
@@ -6138,10 +6144,10 @@
         <v>142</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="24" customHeight="1">
@@ -6149,23 +6155,23 @@
     </row>
     <row r="30" spans="1:28" ht="24" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="31" spans="1:28" ht="24" customHeight="1">
       <c r="B31" s="13" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
@@ -6173,10 +6179,10 @@
         <v>197</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -6184,10 +6190,10 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -6195,10 +6201,10 @@
         <v>142</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
@@ -6208,10 +6214,10 @@
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
@@ -6219,10 +6225,10 @@
         <v>121</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -6230,7 +6236,7 @@
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>43</v>
@@ -6241,23 +6247,23 @@
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="B47" s="11" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="49" spans="1:31" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="24" customHeight="1">
@@ -6265,10 +6271,10 @@
         <v>61</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="51" spans="1:31" ht="24" customHeight="1">
@@ -6279,16 +6285,16 @@
     <row r="52" spans="1:31" ht="24" customHeight="1">
       <c r="B52" s="11"/>
       <c r="AA52" s="6" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AB52" s="6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AC52" s="6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AD52" s="6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AE52" s="6" t="s">
         <v>67</v>
@@ -6296,10 +6302,10 @@
     </row>
     <row r="54" spans="1:31" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="55" spans="1:31" ht="24" customHeight="1">
@@ -6307,10 +6313,10 @@
         <v>44</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="24" customHeight="1">
@@ -6318,20 +6324,20 @@
     </row>
     <row r="59" spans="1:31" ht="24" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="60" spans="1:31" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>43</v>
@@ -6342,23 +6348,23 @@
         <v>44</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="24" customHeight="1">
       <c r="B64" s="11" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
@@ -6366,10 +6372,10 @@
         <v>142</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
@@ -6420,20 +6426,20 @@
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -6444,10 +6450,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
@@ -6455,7 +6461,7 @@
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -6466,10 +6472,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="24" customHeight="1">
@@ -6482,7 +6488,7 @@
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>238</v>
@@ -6493,43 +6499,43 @@
         <v>61</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
-        <v>328</v>
+        <v>461</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="24" customHeight="1">
@@ -6537,30 +6543,30 @@
         <v>61</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AE23" s="6" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AF23" s="6" t="s">
         <v>67</v>
@@ -6568,10 +6574,10 @@
     </row>
     <row r="25" spans="1:32" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="24" customHeight="1">
@@ -6579,21 +6585,21 @@
         <v>61</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="24" customHeight="1">
       <c r="B27" s="11" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AA27" s="6" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AC27" s="6" t="s">
         <v>67</v>
@@ -6601,10 +6607,10 @@
     </row>
     <row r="29" spans="1:32" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="24" customHeight="1">
@@ -6612,24 +6618,24 @@
         <v>61</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="24" customHeight="1">
       <c r="B31" s="11" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="AA31" s="6" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AD31" s="6" t="s">
         <v>67</v>
@@ -6637,20 +6643,20 @@
     </row>
     <row r="34" spans="1:30" ht="24" customHeight="1">
       <c r="A34" s="12" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="24" customHeight="1">
       <c r="B35" s="13" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="37" spans="1:30" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>141</v>
@@ -6661,24 +6667,24 @@
         <v>61</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="24" customHeight="1">
       <c r="B39" s="11" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AA39" s="6" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="AD39" s="6" t="s">
         <v>67</v>
@@ -6686,10 +6692,10 @@
     </row>
     <row r="41" spans="1:30" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="24" customHeight="1">
@@ -6697,10 +6703,10 @@
         <v>197</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="24" customHeight="1">
@@ -6708,10 +6714,10 @@
     </row>
     <row r="45" spans="1:30" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="46" spans="1:30" ht="24" customHeight="1">
@@ -6719,23 +6725,23 @@
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="24" customHeight="1">
       <c r="B47" s="11" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
@@ -6743,23 +6749,23 @@
         <v>44</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="B51" s="11" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
@@ -6767,10 +6773,10 @@
         <v>142</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -6778,23 +6784,23 @@
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="B59" s="13" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
@@ -6802,10 +6808,10 @@
         <v>142</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
@@ -6815,10 +6821,10 @@
     </row>
     <row r="65" spans="1:32" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="24" customHeight="1">
@@ -6826,10 +6832,10 @@
         <v>142</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="67" spans="1:32" ht="24" customHeight="1">
@@ -6837,23 +6843,23 @@
     </row>
     <row r="70" spans="1:32" ht="24" customHeight="1">
       <c r="A70" s="12" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="71" spans="1:32" ht="24" customHeight="1">
       <c r="B71" s="13" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="73" spans="1:32" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="74" spans="1:32" ht="24" customHeight="1">
@@ -6861,30 +6867,30 @@
         <v>61</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="24" customHeight="1">
       <c r="B75" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="AA75" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="AA75" s="6" t="s">
-        <v>469</v>
-      </c>
       <c r="AB75" s="6" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AC75" s="6" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AD75" s="6" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AE75" s="6" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AF75" s="6" t="s">
         <v>67</v>
@@ -6892,10 +6898,10 @@
     </row>
     <row r="77" spans="1:32" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="78" spans="1:32" ht="24" customHeight="1">
@@ -6903,21 +6909,21 @@
         <v>61</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="79" spans="1:32" ht="24" customHeight="1">
       <c r="B79" s="11" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AA79" s="6" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AB79" s="6" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AC79" s="6" t="s">
         <v>67</v>
@@ -6925,10 +6931,10 @@
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="24" customHeight="1">
@@ -6936,24 +6942,24 @@
         <v>61</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="83" spans="1:30" ht="24" customHeight="1">
       <c r="B83" s="11" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="AA83" s="6" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="AB83" s="6" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AC83" s="6" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AD83" s="6" t="s">
         <v>67</v>
@@ -6961,20 +6967,20 @@
     </row>
     <row r="86" spans="1:30" ht="24" customHeight="1">
       <c r="A86" s="12" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="87" spans="1:30" ht="24" customHeight="1">
       <c r="B87" s="13" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B89" s="9" t="s">
         <v>141</v>
@@ -6985,24 +6991,24 @@
         <v>61</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="91" spans="1:30" ht="24" customHeight="1">
       <c r="B91" s="11" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="AA91" s="6" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="AB91" s="6" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AC91" s="6" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="AD91" s="6" t="s">
         <v>67</v>
@@ -7010,10 +7016,10 @@
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="24" customHeight="1">
@@ -7021,10 +7027,10 @@
         <v>197</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="24" customHeight="1">
@@ -7034,10 +7040,10 @@
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -7045,10 +7051,10 @@
         <v>44</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
@@ -7056,10 +7062,10 @@
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="A101" s="9" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
@@ -7067,10 +7073,10 @@
         <v>197</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -7080,10 +7086,10 @@
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
@@ -7091,10 +7097,10 @@
         <v>142</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
@@ -7102,20 +7108,20 @@
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="12" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="B111" s="13" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="113" spans="1:28" ht="24" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B113" s="9" t="s">
         <v>141</v>
@@ -7126,18 +7132,18 @@
         <v>61</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="115" spans="1:28" ht="24" customHeight="1">
       <c r="B115" s="11" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AA115" s="6" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AB115" s="6" t="s">
         <v>67</v>
@@ -7145,10 +7151,10 @@
     </row>
     <row r="117" spans="1:28" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="118" spans="1:28" ht="24" customHeight="1">
@@ -7156,10 +7162,10 @@
         <v>197</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="119" spans="1:28" ht="24" customHeight="1">
@@ -7167,10 +7173,10 @@
     </row>
     <row r="121" spans="1:28" ht="24" customHeight="1">
       <c r="A121" s="9" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="122" spans="1:28" ht="24" customHeight="1">
@@ -7178,23 +7184,23 @@
         <v>44</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="123" spans="1:28" ht="24" customHeight="1">
       <c r="B123" s="11" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="125" spans="1:28" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="126" spans="1:28" ht="24" customHeight="1">
@@ -7202,10 +7208,10 @@
         <v>44</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="127" spans="1:28" ht="24" customHeight="1">
@@ -7288,20 +7294,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -7312,10 +7318,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7323,7 +7329,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -7334,10 +7340,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -7347,28 +7353,28 @@
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="24" customHeight="1">
@@ -7376,10 +7382,10 @@
         <v>142</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="24" customHeight="1">
@@ -7387,20 +7393,20 @@
     </row>
     <row r="22" spans="1:35" ht="24" customHeight="1">
       <c r="A22" s="12" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="24" customHeight="1">
       <c r="B23" s="13" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>141</v>
@@ -7411,39 +7417,39 @@
         <v>61</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="24" customHeight="1">
       <c r="B27" s="11" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="AA27" s="6" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="AE27" s="6" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="AF27" s="6" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="AG27" s="6" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="AH27" s="6" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="AI27" s="6" t="s">
         <v>67</v>
@@ -7451,10 +7457,10 @@
     </row>
     <row r="29" spans="1:35" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="24" customHeight="1">
@@ -7462,10 +7468,10 @@
         <v>121</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="31" spans="1:35" ht="24" customHeight="1">
@@ -7473,10 +7479,10 @@
     </row>
     <row r="33" spans="1:35" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="34" spans="1:35" ht="24" customHeight="1">
@@ -7484,10 +7490,10 @@
         <v>197</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="35" spans="1:35" ht="24" customHeight="1">
@@ -7495,10 +7501,10 @@
     </row>
     <row r="37" spans="1:35" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="38" spans="1:35" ht="24" customHeight="1">
@@ -7506,33 +7512,33 @@
         <v>44</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="39" spans="1:35" ht="24" customHeight="1">
       <c r="B39" s="11" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="42" spans="1:35" ht="24" customHeight="1">
       <c r="A42" s="12" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="43" spans="1:35" ht="24" customHeight="1">
       <c r="B43" s="13" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="45" spans="1:35" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>141</v>
@@ -7543,39 +7549,39 @@
         <v>61</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="47" spans="1:35" ht="24" customHeight="1">
       <c r="B47" s="11" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="AA47" s="6" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="AB47" s="6" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="AC47" s="6" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="AD47" s="6" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="AE47" s="6" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="AF47" s="6" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="AG47" s="6" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="AH47" s="6" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="AI47" s="6" t="s">
         <v>67</v>
@@ -7583,10 +7589,10 @@
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
@@ -7594,10 +7600,10 @@
         <v>121</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
@@ -7605,10 +7611,10 @@
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
@@ -7616,10 +7622,10 @@
         <v>197</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -7627,10 +7633,10 @@
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
@@ -7638,36 +7644,36 @@
         <v>44</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="B59" s="11" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="B63" s="13" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="66" spans="1:30" ht="24" customHeight="1">
@@ -7675,24 +7681,24 @@
         <v>61</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="B67" s="11" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="AA67" s="6" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AB67" s="6" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="AC67" s="6" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="AD67" s="6" t="s">
         <v>67</v>
@@ -7700,10 +7706,10 @@
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="A69" s="9" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="70" spans="1:30" ht="24" customHeight="1">
@@ -7711,23 +7717,23 @@
         <v>44</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="B71" s="11" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="74" spans="1:30" ht="24" customHeight="1">
@@ -7735,10 +7741,10 @@
         <v>142</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
@@ -7746,10 +7752,10 @@
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
@@ -7757,10 +7763,10 @@
         <v>142</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
@@ -7768,20 +7774,20 @@
     </row>
     <row r="82" spans="1:33" ht="24" customHeight="1">
       <c r="A82" s="12" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="83" spans="1:33" ht="24" customHeight="1">
       <c r="B83" s="13" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="85" spans="1:33" ht="24" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B85" s="9" t="s">
         <v>141</v>
@@ -7792,31 +7798,31 @@
         <v>61</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="87" spans="1:33" ht="24" customHeight="1">
       <c r="B87" s="11"/>
       <c r="AA87" s="6" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="AB87" s="6" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="AC87" s="6" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="AD87" s="6" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="AE87" s="6" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="AF87" s="6" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="AG87" s="6" t="s">
         <v>67</v>
@@ -7824,10 +7830,10 @@
     </row>
     <row r="89" spans="1:33" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="90" spans="1:33" ht="24" customHeight="1">
@@ -7835,10 +7841,10 @@
         <v>197</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="91" spans="1:33" ht="24" customHeight="1">
@@ -7846,10 +7852,10 @@
     </row>
     <row r="93" spans="1:33" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="94" spans="1:33" ht="24" customHeight="1">
@@ -7857,10 +7863,10 @@
         <v>142</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="95" spans="1:33" ht="24" customHeight="1">
@@ -7868,10 +7874,10 @@
     </row>
     <row r="97" spans="1:33" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="98" spans="1:33" ht="24" customHeight="1">
@@ -7879,33 +7885,33 @@
         <v>44</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="99" spans="1:33" ht="24" customHeight="1">
       <c r="B99" s="11" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="102" spans="1:33" ht="24" customHeight="1">
       <c r="A102" s="12" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="103" spans="1:33" ht="24" customHeight="1">
       <c r="B103" s="13" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="105" spans="1:33" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>141</v>
@@ -7916,31 +7922,31 @@
         <v>61</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="107" spans="1:33" ht="24" customHeight="1">
       <c r="B107" s="11"/>
       <c r="AA107" s="6" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="AB107" s="6" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="AC107" s="6" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="AD107" s="6" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="AE107" s="6" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="AF107" s="6" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="AG107" s="6" t="s">
         <v>67</v>
@@ -7948,10 +7954,10 @@
     </row>
     <row r="109" spans="1:33" ht="24" customHeight="1">
       <c r="A109" s="9" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="110" spans="1:33" ht="24" customHeight="1">
@@ -7959,10 +7965,10 @@
         <v>197</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="111" spans="1:33" ht="24" customHeight="1">
@@ -7970,10 +7976,10 @@
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
@@ -7981,10 +7987,10 @@
         <v>44</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -7992,10 +7998,10 @@
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
@@ -8003,10 +8009,10 @@
         <v>44</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
@@ -8082,20 +8088,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -8106,10 +8112,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -8117,7 +8123,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -8128,10 +8134,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -8144,20 +8150,20 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>238</v>
@@ -8168,36 +8174,36 @@
         <v>61</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="AF19" s="6" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="AG19" s="6" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="AH19" s="6" t="s">
         <v>67</v>
@@ -8205,10 +8211,10 @@
     </row>
     <row r="21" spans="1:34" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1">
@@ -8216,10 +8222,10 @@
         <v>142</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
@@ -8227,20 +8233,20 @@
     </row>
     <row r="26" spans="1:34" ht="24" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="24" customHeight="1">
       <c r="B27" s="13" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>54</v>
@@ -8251,10 +8257,10 @@
         <v>44</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="31" spans="1:34" ht="24" customHeight="1">
@@ -8267,10 +8273,10 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
@@ -8278,21 +8284,21 @@
         <v>61</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="B36" s="11" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="AA36" s="6" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="AC36" s="6" t="s">
         <v>67</v>
@@ -8300,10 +8306,10 @@
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
@@ -8311,10 +8317,10 @@
         <v>197</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
@@ -8324,10 +8330,10 @@
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
@@ -8335,10 +8341,10 @@
         <v>44</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
